--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_ynyn_pf_sc_results_bus.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_ynyn_pf_sc_results_bus.xlsx
@@ -23,22 +23,22 @@
     <sheet name="LL_min_10" sheetId="14" r:id="rId14"/>
     <sheet name="LL_min_fault_6" sheetId="15" r:id="rId15"/>
     <sheet name="LL_min_fault_10" sheetId="16" r:id="rId16"/>
-    <sheet name="LLG_max_6" sheetId="17" r:id="rId17"/>
-    <sheet name="LLG_max_10" sheetId="18" r:id="rId18"/>
-    <sheet name="LLG_max_fault_6" sheetId="19" r:id="rId19"/>
-    <sheet name="LLG_max_fault_10" sheetId="20" r:id="rId20"/>
-    <sheet name="LLG_min_6" sheetId="21" r:id="rId21"/>
-    <sheet name="LLG_min_10" sheetId="22" r:id="rId22"/>
-    <sheet name="LLG_min_fault_6" sheetId="23" r:id="rId23"/>
-    <sheet name="LLG_min_fault_10" sheetId="24" r:id="rId24"/>
-    <sheet name="LG_max_6" sheetId="25" r:id="rId25"/>
-    <sheet name="LG_max_10" sheetId="26" r:id="rId26"/>
-    <sheet name="LG_max_fault_6" sheetId="27" r:id="rId27"/>
-    <sheet name="LG_max_fault_10" sheetId="28" r:id="rId28"/>
-    <sheet name="LG_min_6" sheetId="29" r:id="rId29"/>
-    <sheet name="LG_min_10" sheetId="30" r:id="rId30"/>
-    <sheet name="LG_min_fault_6" sheetId="31" r:id="rId31"/>
-    <sheet name="LG_min_fault_10" sheetId="32" r:id="rId32"/>
+    <sheet name="LG_max_6" sheetId="17" r:id="rId17"/>
+    <sheet name="LG_max_10" sheetId="18" r:id="rId18"/>
+    <sheet name="LG_max_fault_6" sheetId="19" r:id="rId19"/>
+    <sheet name="LG_max_fault_10" sheetId="20" r:id="rId20"/>
+    <sheet name="LG_min_6" sheetId="21" r:id="rId21"/>
+    <sheet name="LG_min_10" sheetId="22" r:id="rId22"/>
+    <sheet name="LG_min_fault_6" sheetId="23" r:id="rId23"/>
+    <sheet name="LG_min_fault_10" sheetId="24" r:id="rId24"/>
+    <sheet name="LLG_max_6" sheetId="25" r:id="rId25"/>
+    <sheet name="LLG_max_10" sheetId="26" r:id="rId26"/>
+    <sheet name="LLG_max_fault_6" sheetId="27" r:id="rId27"/>
+    <sheet name="LLG_max_fault_10" sheetId="28" r:id="rId28"/>
+    <sheet name="LLG_min_6" sheetId="29" r:id="rId29"/>
+    <sheet name="LLG_min_10" sheetId="30" r:id="rId30"/>
+    <sheet name="LLG_min_fault_6" sheetId="31" r:id="rId31"/>
+    <sheet name="LLG_min_fault_10" sheetId="32" r:id="rId32"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -3282,58 +3282,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5.263406116091551</v>
       </c>
       <c r="C2">
-        <v>5.254784886328722</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5.257332778285277</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>334.2711831777758</v>
       </c>
       <c r="F2">
-        <v>333.7236615521012</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>333.8854744238693</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.302220645038725</v>
+        <v>1.302220645038779</v>
       </c>
       <c r="I2">
-        <v>13.13357405514342</v>
+        <v>13.13357405514232</v>
       </c>
       <c r="J2">
-        <v>1.324394474185776</v>
+        <v>1.324394473163984</v>
       </c>
       <c r="K2">
-        <v>13.24394453578181</v>
+        <v>13.24394453564038</v>
       </c>
       <c r="L2">
-        <v>1.324394474104231</v>
+        <v>1.324394474104344</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6332935604015745</v>
+        <v>0.6343475260327254</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.100000023884802</v>
       </c>
       <c r="P2">
-        <v>0.633293560417666</v>
+        <v>0.6340400984523166</v>
       </c>
       <c r="Q2">
-        <v>0.0161263769191731</v>
+        <v>60.14776954401343</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>-179.9838736221539</v>
+        <v>119.8681757387986</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3341,58 +3341,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>6.909848175428154</v>
       </c>
       <c r="C3">
-        <v>6.656253277127973</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>6.653846011351294</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>79.78805408285778</v>
       </c>
       <c r="F3">
-        <v>76.85979242688327</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>76.83199571599975</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04235650252306203</v>
+        <v>0.04235650252306639</v>
       </c>
       <c r="I3">
-        <v>0.8917025845794858</v>
+        <v>0.8917025845793023</v>
       </c>
       <c r="J3">
-        <v>0.107731905406386</v>
+        <v>0.107731905317869</v>
       </c>
       <c r="K3">
-        <v>2.308438694631208</v>
+        <v>2.30843869464295</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131889</v>
+        <v>0.1077319054132363</v>
       </c>
       <c r="M3">
-        <v>2.30843869464288</v>
+        <v>2.308438694642829</v>
       </c>
       <c r="N3">
-        <v>0.4152062737902777</v>
+        <v>0.5711070883988375</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.100000023844383</v>
       </c>
       <c r="P3">
-        <v>0.4152062738035633</v>
+        <v>0.5713137067019788</v>
       </c>
       <c r="Q3">
-        <v>-0.02683260972620329</v>
+        <v>74.33438202440513</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-89.99999999999596</v>
       </c>
       <c r="S3">
-        <v>179.9731673889169</v>
+        <v>105.6598069810126</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3400,58 +3400,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3.983205985585155</v>
       </c>
       <c r="C4">
-        <v>4.890299894454539</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.074581173286805</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>45.99410096030636</v>
       </c>
       <c r="F4">
-        <v>56.46831920962654</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>35.50220536084985</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3.756194024324175</v>
+        <v>3.756194024324211</v>
       </c>
       <c r="I4">
-        <v>2.351750953160728</v>
+        <v>2.351750953160546</v>
       </c>
       <c r="J4">
-        <v>0.627731916357028</v>
+        <v>0.6277319162687583</v>
       </c>
       <c r="K4">
-        <v>2.898438697948213</v>
+        <v>2.89843869796003</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638758</v>
+        <v>0.6277319163640331</v>
       </c>
       <c r="M4">
-        <v>2.898438697960007</v>
+        <v>2.898438697959961</v>
       </c>
       <c r="N4">
-        <v>0.7580900664194924</v>
+        <v>0.5307908469946169</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.100000023848398</v>
       </c>
       <c r="P4">
-        <v>0.7580900664245824</v>
+        <v>0.8442536647143238</v>
       </c>
       <c r="Q4">
-        <v>-10.9913125124434</v>
+        <v>41.84201685276578</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-89.99999999999628</v>
       </c>
       <c r="S4">
-        <v>169.0086874874627</v>
+        <v>117.9292480534404</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3459,58 +3459,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.619406804235623</v>
       </c>
       <c r="C5">
-        <v>3.667011208147285</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.529552560941497</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>30.24630447085148</v>
       </c>
       <c r="F5">
-        <v>42.3429981629042</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>29.20875703977761</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>7.459610837159099</v>
+        <v>7.459610837159167</v>
       </c>
       <c r="I5">
-        <v>3.814808185419793</v>
+        <v>3.814808185419611</v>
       </c>
       <c r="J5">
-        <v>1.147731927164048</v>
+        <v>1.147731927075923</v>
       </c>
       <c r="K5">
-        <v>3.488438701404311</v>
+        <v>3.488438701416144</v>
       </c>
       <c r="L5">
-        <v>1.147731927170907</v>
+        <v>1.14773192717118</v>
       </c>
       <c r="M5">
-        <v>3.488438701416172</v>
+        <v>3.488438701416125</v>
       </c>
       <c r="N5">
-        <v>0.8170022497395296</v>
+        <v>0.6238454628223883</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.100000023847146</v>
       </c>
       <c r="P5">
-        <v>0.8170022497429723</v>
+        <v>0.9043687566081289</v>
       </c>
       <c r="Q5">
-        <v>-7.597588371982598</v>
+        <v>34.69933806084441</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-89.99999999999619</v>
       </c>
       <c r="S5">
-        <v>172.4024116279919</v>
+        <v>124.5503549504857</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3518,58 +3518,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2.619406804235623</v>
       </c>
       <c r="C6">
-        <v>3.667011208147284</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.529552560941495</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>30.24630447085149</v>
       </c>
       <c r="F6">
-        <v>42.34299816290418</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>29.20875703977759</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7.459610837159103</v>
+        <v>7.459610837159166</v>
       </c>
       <c r="I6">
-        <v>3.814808185419791</v>
+        <v>3.814808185419611</v>
       </c>
       <c r="J6">
-        <v>1.14773192716405</v>
+        <v>1.147731927075922</v>
       </c>
       <c r="K6">
-        <v>3.488438701404312</v>
+        <v>3.488438701416144</v>
       </c>
       <c r="L6">
-        <v>1.147731927170906</v>
+        <v>1.14773192717118</v>
       </c>
       <c r="M6">
-        <v>3.488438701416173</v>
+        <v>3.488438701416125</v>
       </c>
       <c r="N6">
-        <v>0.8170022497395295</v>
+        <v>0.6238454628223883</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.100000023847146</v>
       </c>
       <c r="P6">
-        <v>0.8170022497429722</v>
+        <v>0.9043687566081289</v>
       </c>
       <c r="Q6">
-        <v>-7.597588371982567</v>
+        <v>34.69933806084442</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-89.99999999999619</v>
       </c>
       <c r="S6">
-        <v>172.4024116279919</v>
+        <v>124.5503549504857</v>
       </c>
     </row>
   </sheetData>
@@ -3649,58 +3649,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5.263406116091551</v>
       </c>
       <c r="C2">
-        <v>5.254784886328722</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5.257332778285277</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>334.2711831777758</v>
       </c>
       <c r="F2">
-        <v>333.7236615521012</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>333.8854744238693</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.302220645038725</v>
+        <v>1.302220645038779</v>
       </c>
       <c r="I2">
-        <v>13.13357405514342</v>
+        <v>13.13357405514232</v>
       </c>
       <c r="J2">
-        <v>1.324394474185776</v>
+        <v>1.324394473163984</v>
       </c>
       <c r="K2">
-        <v>13.24394453578181</v>
+        <v>13.24394453564038</v>
       </c>
       <c r="L2">
-        <v>1.324394474104231</v>
+        <v>1.324394474104344</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6332935604015745</v>
+        <v>0.6343475260327254</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.100000023884802</v>
       </c>
       <c r="P2">
-        <v>0.633293560417666</v>
+        <v>0.6340400984523166</v>
       </c>
       <c r="Q2">
-        <v>0.0161263769191731</v>
+        <v>60.14776954401343</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>-179.9838736221539</v>
+        <v>119.8681757387986</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3708,58 +3708,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>6.909848175428154</v>
       </c>
       <c r="C3">
-        <v>6.656253277127973</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>6.653846011351294</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>79.78805408285778</v>
       </c>
       <c r="F3">
-        <v>76.85979242688327</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>76.83199571599975</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04235650252306203</v>
+        <v>0.04235650252306639</v>
       </c>
       <c r="I3">
-        <v>0.8917025845794858</v>
+        <v>0.8917025845793023</v>
       </c>
       <c r="J3">
-        <v>0.107731905406386</v>
+        <v>0.107731905317869</v>
       </c>
       <c r="K3">
-        <v>2.308438694631208</v>
+        <v>2.30843869464295</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131889</v>
+        <v>0.1077319054132363</v>
       </c>
       <c r="M3">
-        <v>2.30843869464288</v>
+        <v>2.308438694642829</v>
       </c>
       <c r="N3">
-        <v>0.4152062737902777</v>
+        <v>0.5711070883988375</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.100000023844383</v>
       </c>
       <c r="P3">
-        <v>0.4152062738035633</v>
+        <v>0.5713137067019788</v>
       </c>
       <c r="Q3">
-        <v>-0.02683260972620329</v>
+        <v>74.33438202440513</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-89.99999999999596</v>
       </c>
       <c r="S3">
-        <v>179.9731673889169</v>
+        <v>105.6598069810126</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3767,58 +3767,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3.983205985585155</v>
       </c>
       <c r="C4">
-        <v>4.890299894454539</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.074581173286805</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>45.99410096030636</v>
       </c>
       <c r="F4">
-        <v>56.46831920962654</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>35.50220536084985</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3.756194024324175</v>
+        <v>3.756194024324211</v>
       </c>
       <c r="I4">
-        <v>2.351750953160728</v>
+        <v>2.351750953160546</v>
       </c>
       <c r="J4">
-        <v>0.627731916357028</v>
+        <v>0.6277319162687583</v>
       </c>
       <c r="K4">
-        <v>2.898438697948213</v>
+        <v>2.89843869796003</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638758</v>
+        <v>0.6277319163640331</v>
       </c>
       <c r="M4">
-        <v>2.898438697960007</v>
+        <v>2.898438697959961</v>
       </c>
       <c r="N4">
-        <v>0.7580900664194924</v>
+        <v>0.5307908469946169</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.100000023848398</v>
       </c>
       <c r="P4">
-        <v>0.7580900664245824</v>
+        <v>0.8442536647143238</v>
       </c>
       <c r="Q4">
-        <v>-10.9913125124434</v>
+        <v>41.84201685276578</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-89.99999999999628</v>
       </c>
       <c r="S4">
-        <v>169.0086874874627</v>
+        <v>117.9292480534404</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3826,58 +3826,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.619406804235623</v>
       </c>
       <c r="C5">
-        <v>3.667011208147285</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.529552560941497</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>30.24630447085148</v>
       </c>
       <c r="F5">
-        <v>42.3429981629042</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>29.20875703977761</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>7.459610837159099</v>
+        <v>7.459610837159167</v>
       </c>
       <c r="I5">
-        <v>3.814808185419793</v>
+        <v>3.814808185419611</v>
       </c>
       <c r="J5">
-        <v>1.147731927164048</v>
+        <v>1.147731927075923</v>
       </c>
       <c r="K5">
-        <v>3.488438701404311</v>
+        <v>3.488438701416144</v>
       </c>
       <c r="L5">
-        <v>1.147731927170907</v>
+        <v>1.14773192717118</v>
       </c>
       <c r="M5">
-        <v>3.488438701416172</v>
+        <v>3.488438701416125</v>
       </c>
       <c r="N5">
-        <v>0.8170022497395296</v>
+        <v>0.6238454628223883</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.100000023847146</v>
       </c>
       <c r="P5">
-        <v>0.8170022497429723</v>
+        <v>0.9043687566081289</v>
       </c>
       <c r="Q5">
-        <v>-7.597588371982598</v>
+        <v>34.69933806084441</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-89.99999999999619</v>
       </c>
       <c r="S5">
-        <v>172.4024116279919</v>
+        <v>124.5503549504857</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3885,58 +3885,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2.619406804235623</v>
       </c>
       <c r="C6">
-        <v>3.667011208147284</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.529552560941495</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>30.24630447085149</v>
       </c>
       <c r="F6">
-        <v>42.34299816290418</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>29.20875703977759</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7.459610837159103</v>
+        <v>7.459610837159166</v>
       </c>
       <c r="I6">
-        <v>3.814808185419791</v>
+        <v>3.814808185419611</v>
       </c>
       <c r="J6">
-        <v>1.14773192716405</v>
+        <v>1.147731927075922</v>
       </c>
       <c r="K6">
-        <v>3.488438701404312</v>
+        <v>3.488438701416144</v>
       </c>
       <c r="L6">
-        <v>1.147731927170906</v>
+        <v>1.14773192717118</v>
       </c>
       <c r="M6">
-        <v>3.488438701416173</v>
+        <v>3.488438701416125</v>
       </c>
       <c r="N6">
-        <v>0.8170022497395295</v>
+        <v>0.6238454628223883</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.100000023847146</v>
       </c>
       <c r="P6">
-        <v>0.8170022497429722</v>
+        <v>0.9043687566081289</v>
       </c>
       <c r="Q6">
-        <v>-7.597588371982567</v>
+        <v>34.69933806084442</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-89.99999999999619</v>
       </c>
       <c r="S6">
-        <v>172.4024116279919</v>
+        <v>124.5503549504857</v>
       </c>
     </row>
   </sheetData>
@@ -4016,58 +4016,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.624940474846058</v>
       </c>
       <c r="C2">
-        <v>3.622289782670551</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.620634380647762</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>230.2146394843616</v>
       </c>
       <c r="F2">
-        <v>230.0462979218441</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>229.9411657734619</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.302220645038725</v>
+        <v>1.302220645038779</v>
       </c>
       <c r="I2">
-        <v>13.13357405514342</v>
+        <v>13.13357405514232</v>
       </c>
       <c r="J2">
-        <v>1.324394474185776</v>
+        <v>1.324394473163984</v>
       </c>
       <c r="K2">
-        <v>13.24394453578181</v>
+        <v>13.24394453564038</v>
       </c>
       <c r="L2">
-        <v>1.324394474104231</v>
+        <v>1.324394474104344</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.8370081355091836</v>
+        <v>0.6910350761596569</v>
       </c>
       <c r="O2">
-        <v>0.4028253111899554</v>
+        <v>1.100000023874117</v>
       </c>
       <c r="P2">
-        <v>0.6911934857615384</v>
+        <v>0.8375829381608167</v>
       </c>
       <c r="Q2">
-        <v>8.945076236609326</v>
+        <v>40.43279153111713</v>
       </c>
       <c r="R2">
-        <v>-115.8807585964508</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>160.3632685851118</v>
+        <v>128.9019448775642</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4075,58 +4075,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.490708671254766</v>
       </c>
       <c r="C3">
-        <v>1.500483089525901</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.418459205771826</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>17.21322105264497</v>
       </c>
       <c r="F3">
-        <v>17.32608631304521</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>16.37895608573734</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04235650252306203</v>
+        <v>0.04235650252306639</v>
       </c>
       <c r="I3">
-        <v>0.8917025845794858</v>
+        <v>0.8917025845793023</v>
       </c>
       <c r="J3">
-        <v>0.107731905406386</v>
+        <v>0.107731905317869</v>
       </c>
       <c r="K3">
-        <v>2.308438694631208</v>
+        <v>2.30843869464295</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131889</v>
+        <v>0.1077319054132363</v>
       </c>
       <c r="M3">
-        <v>2.30843869464288</v>
+        <v>2.308438694642829</v>
       </c>
       <c r="N3">
-        <v>1.027154900637619</v>
+        <v>0.9282437459573998</v>
       </c>
       <c r="O3">
-        <v>0.8723446855816874</v>
+        <v>1.100000023844591</v>
       </c>
       <c r="P3">
-        <v>0.9370212414505737</v>
+        <v>1.036054827732469</v>
       </c>
       <c r="Q3">
-        <v>21.5116854508782</v>
+        <v>29.26272628975795</v>
       </c>
       <c r="R3">
-        <v>-100.0510163395943</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S3">
-        <v>149.0209319720996</v>
+        <v>141.4079909551121</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4134,58 +4134,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.245288291711345</v>
       </c>
       <c r="C4">
-        <v>1.367510898951779</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.181818645416918</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>14.37935060876469</v>
       </c>
       <c r="F4">
-        <v>15.79065571259113</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>13.64646626129553</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3.756194024324175</v>
+        <v>3.756194024324211</v>
       </c>
       <c r="I4">
-        <v>2.351750953160728</v>
+        <v>2.351750953160546</v>
       </c>
       <c r="J4">
-        <v>0.627731916357028</v>
+        <v>0.6277319162687583</v>
       </c>
       <c r="K4">
-        <v>2.898438697948213</v>
+        <v>2.89843869796003</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638758</v>
+        <v>0.6277319163640331</v>
       </c>
       <c r="M4">
-        <v>2.898438697960007</v>
+        <v>2.898438697959961</v>
       </c>
       <c r="N4">
-        <v>1.007885130085947</v>
+        <v>0.9154105614346412</v>
       </c>
       <c r="O4">
-        <v>0.8020156209384898</v>
+        <v>1.10000002384432</v>
       </c>
       <c r="P4">
-        <v>0.9264810374263683</v>
+        <v>1.016159979689186</v>
       </c>
       <c r="Q4">
-        <v>20.15794956472948</v>
+        <v>30.27778034773899</v>
       </c>
       <c r="R4">
-        <v>-99.52967390013438</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S4">
-        <v>151.3913887327441</v>
+        <v>141.0749476076403</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4193,58 +4193,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.065893177151217</v>
       </c>
       <c r="C5">
-        <v>1.249318774975366</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1.04065453000569</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>12.30787425511282</v>
       </c>
       <c r="F5">
-        <v>14.42589062071362</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>12.01644346064377</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>7.459610837159099</v>
+        <v>7.459610837159167</v>
       </c>
       <c r="I5">
-        <v>3.814808185419793</v>
+        <v>3.814808185419611</v>
       </c>
       <c r="J5">
-        <v>1.147731927164048</v>
+        <v>1.147731927075923</v>
       </c>
       <c r="K5">
-        <v>3.488438701404311</v>
+        <v>3.488438701416144</v>
       </c>
       <c r="L5">
-        <v>1.147731927170907</v>
+        <v>1.14773192717118</v>
       </c>
       <c r="M5">
-        <v>3.488438701416172</v>
+        <v>3.488438701416125</v>
       </c>
       <c r="N5">
-        <v>0.9913509947044795</v>
+        <v>0.9049780685278245</v>
       </c>
       <c r="O5">
-        <v>0.7421321146326126</v>
+        <v>1.100000023844069</v>
       </c>
       <c r="P5">
-        <v>0.9182145255970634</v>
+        <v>1.002559002796032</v>
       </c>
       <c r="Q5">
-        <v>18.897350790559</v>
+        <v>30.94780160751773</v>
       </c>
       <c r="R5">
-        <v>-99.08615255179105</v>
+        <v>-89.99999999999631</v>
       </c>
       <c r="S5">
-        <v>153.3575306380652</v>
+        <v>140.7290130523957</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4252,58 +4252,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.065893177151218</v>
       </c>
       <c r="C6">
-        <v>1.249318774975366</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1.040654530005689</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>12.30787425511282</v>
       </c>
       <c r="F6">
-        <v>14.42589062071363</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>12.01644346064376</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7.459610837159103</v>
+        <v>7.459610837159166</v>
       </c>
       <c r="I6">
-        <v>3.814808185419791</v>
+        <v>3.814808185419611</v>
       </c>
       <c r="J6">
-        <v>1.14773192716405</v>
+        <v>1.147731927075922</v>
       </c>
       <c r="K6">
-        <v>3.488438701404312</v>
+        <v>3.488438701416144</v>
       </c>
       <c r="L6">
-        <v>1.147731927170906</v>
+        <v>1.14773192717118</v>
       </c>
       <c r="M6">
-        <v>3.488438701416173</v>
+        <v>3.488438701416125</v>
       </c>
       <c r="N6">
-        <v>0.9913509947044795</v>
+        <v>0.9049780685278244</v>
       </c>
       <c r="O6">
-        <v>0.7421321146326126</v>
+        <v>1.100000023844069</v>
       </c>
       <c r="P6">
-        <v>0.9182145255970634</v>
+        <v>1.002559002796032</v>
       </c>
       <c r="Q6">
-        <v>18.897350790559</v>
+        <v>30.94780160751773</v>
       </c>
       <c r="R6">
-        <v>-99.08615255179105</v>
+        <v>-89.99999999999629</v>
       </c>
       <c r="S6">
-        <v>153.3575306380652</v>
+        <v>140.7290130523957</v>
       </c>
     </row>
   </sheetData>
@@ -4534,58 +4534,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.624940474846058</v>
       </c>
       <c r="C2">
-        <v>3.622289782670551</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.620634380647762</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>230.2146394843616</v>
       </c>
       <c r="F2">
-        <v>230.0462979218441</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>229.9411657734619</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.302220645038725</v>
+        <v>1.302220645038779</v>
       </c>
       <c r="I2">
-        <v>13.13357405514342</v>
+        <v>13.13357405514232</v>
       </c>
       <c r="J2">
-        <v>1.324394474185776</v>
+        <v>1.324394473163984</v>
       </c>
       <c r="K2">
-        <v>13.24394453578181</v>
+        <v>13.24394453564038</v>
       </c>
       <c r="L2">
-        <v>1.324394474104231</v>
+        <v>1.324394474104344</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.8370081355091836</v>
+        <v>0.6910350761596569</v>
       </c>
       <c r="O2">
-        <v>0.4028253111899554</v>
+        <v>1.100000023874117</v>
       </c>
       <c r="P2">
-        <v>0.6911934857615384</v>
+        <v>0.8375829381608167</v>
       </c>
       <c r="Q2">
-        <v>8.945076236609326</v>
+        <v>40.43279153111713</v>
       </c>
       <c r="R2">
-        <v>-115.8807585964508</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>160.3632685851118</v>
+        <v>128.9019448775642</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4593,58 +4593,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.490708671254766</v>
       </c>
       <c r="C3">
-        <v>1.500483089525901</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.418459205771826</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>17.21322105264497</v>
       </c>
       <c r="F3">
-        <v>17.32608631304521</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>16.37895608573734</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04235650252306203</v>
+        <v>0.04235650252306639</v>
       </c>
       <c r="I3">
-        <v>0.8917025845794858</v>
+        <v>0.8917025845793023</v>
       </c>
       <c r="J3">
-        <v>0.107731905406386</v>
+        <v>0.107731905317869</v>
       </c>
       <c r="K3">
-        <v>2.308438694631208</v>
+        <v>2.30843869464295</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131889</v>
+        <v>0.1077319054132363</v>
       </c>
       <c r="M3">
-        <v>2.30843869464288</v>
+        <v>2.308438694642829</v>
       </c>
       <c r="N3">
-        <v>1.027154900637619</v>
+        <v>0.9282437459573998</v>
       </c>
       <c r="O3">
-        <v>0.8723446855816874</v>
+        <v>1.100000023844591</v>
       </c>
       <c r="P3">
-        <v>0.9370212414505737</v>
+        <v>1.036054827732469</v>
       </c>
       <c r="Q3">
-        <v>21.5116854508782</v>
+        <v>29.26272628975795</v>
       </c>
       <c r="R3">
-        <v>-100.0510163395943</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S3">
-        <v>149.0209319720996</v>
+        <v>141.4079909551121</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4652,58 +4652,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.245288291711345</v>
       </c>
       <c r="C4">
-        <v>1.367510898951779</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.181818645416918</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>14.37935060876469</v>
       </c>
       <c r="F4">
-        <v>15.79065571259113</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>13.64646626129553</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3.756194024324175</v>
+        <v>3.756194024324211</v>
       </c>
       <c r="I4">
-        <v>2.351750953160728</v>
+        <v>2.351750953160546</v>
       </c>
       <c r="J4">
-        <v>0.627731916357028</v>
+        <v>0.6277319162687583</v>
       </c>
       <c r="K4">
-        <v>2.898438697948213</v>
+        <v>2.89843869796003</v>
       </c>
       <c r="L4">
-        <v>0.6277319163638758</v>
+        <v>0.6277319163640331</v>
       </c>
       <c r="M4">
-        <v>2.898438697960007</v>
+        <v>2.898438697959961</v>
       </c>
       <c r="N4">
-        <v>1.007885130085947</v>
+        <v>0.9154105614346412</v>
       </c>
       <c r="O4">
-        <v>0.8020156209384898</v>
+        <v>1.10000002384432</v>
       </c>
       <c r="P4">
-        <v>0.9264810374263683</v>
+        <v>1.016159979689186</v>
       </c>
       <c r="Q4">
-        <v>20.15794956472948</v>
+        <v>30.27778034773899</v>
       </c>
       <c r="R4">
-        <v>-99.52967390013438</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S4">
-        <v>151.3913887327441</v>
+        <v>141.0749476076403</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4711,58 +4711,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.065893177151217</v>
       </c>
       <c r="C5">
-        <v>1.249318774975366</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1.04065453000569</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>12.30787425511282</v>
       </c>
       <c r="F5">
-        <v>14.42589062071362</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>12.01644346064377</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>7.459610837159099</v>
+        <v>7.459610837159167</v>
       </c>
       <c r="I5">
-        <v>3.814808185419793</v>
+        <v>3.814808185419611</v>
       </c>
       <c r="J5">
-        <v>1.147731927164048</v>
+        <v>1.147731927075923</v>
       </c>
       <c r="K5">
-        <v>3.488438701404311</v>
+        <v>3.488438701416144</v>
       </c>
       <c r="L5">
-        <v>1.147731927170907</v>
+        <v>1.14773192717118</v>
       </c>
       <c r="M5">
-        <v>3.488438701416172</v>
+        <v>3.488438701416125</v>
       </c>
       <c r="N5">
-        <v>0.9913509947044795</v>
+        <v>0.9049780685278245</v>
       </c>
       <c r="O5">
-        <v>0.7421321146326126</v>
+        <v>1.100000023844069</v>
       </c>
       <c r="P5">
-        <v>0.9182145255970634</v>
+        <v>1.002559002796032</v>
       </c>
       <c r="Q5">
-        <v>18.897350790559</v>
+        <v>30.94780160751773</v>
       </c>
       <c r="R5">
-        <v>-99.08615255179105</v>
+        <v>-89.99999999999631</v>
       </c>
       <c r="S5">
-        <v>153.3575306380652</v>
+        <v>140.7290130523957</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4770,58 +4770,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.065893177151218</v>
       </c>
       <c r="C6">
-        <v>1.249318774975366</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1.040654530005689</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>12.30787425511282</v>
       </c>
       <c r="F6">
-        <v>14.42589062071363</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>12.01644346064376</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7.459610837159103</v>
+        <v>7.459610837159166</v>
       </c>
       <c r="I6">
-        <v>3.814808185419791</v>
+        <v>3.814808185419611</v>
       </c>
       <c r="J6">
-        <v>1.14773192716405</v>
+        <v>1.147731927075922</v>
       </c>
       <c r="K6">
-        <v>3.488438701404312</v>
+        <v>3.488438701416144</v>
       </c>
       <c r="L6">
-        <v>1.147731927170906</v>
+        <v>1.14773192717118</v>
       </c>
       <c r="M6">
-        <v>3.488438701416173</v>
+        <v>3.488438701416125</v>
       </c>
       <c r="N6">
-        <v>0.9913509947044795</v>
+        <v>0.9049780685278244</v>
       </c>
       <c r="O6">
-        <v>0.7421321146326126</v>
+        <v>1.100000023844069</v>
       </c>
       <c r="P6">
-        <v>0.9182145255970634</v>
+        <v>1.002559002796032</v>
       </c>
       <c r="Q6">
-        <v>18.897350790559</v>
+        <v>30.94780160751773</v>
       </c>
       <c r="R6">
-        <v>-99.08615255179105</v>
+        <v>-89.99999999999629</v>
       </c>
       <c r="S6">
-        <v>153.3575306380652</v>
+        <v>140.7290130523957</v>
       </c>
     </row>
   </sheetData>
@@ -4901,58 +4901,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4.212323090189424</v>
       </c>
       <c r="C2">
-        <v>4.204500216346317</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4.206808800909243</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>267.5184457037994</v>
       </c>
       <c r="F2">
-        <v>267.0216264886925</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>267.1682412997662</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.476445250025133</v>
+        <v>1.476445250025187</v>
       </c>
       <c r="I2">
-        <v>14.90759653787144</v>
+        <v>14.90759653787019</v>
       </c>
       <c r="J2">
-        <v>1.504993721246251</v>
+        <v>1.50499372264878</v>
       </c>
       <c r="K2">
-        <v>15.0499369732484</v>
+        <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993720695301</v>
+        <v>1.504993720695429</v>
       </c>
       <c r="M2">
-        <v>15.04993697229334</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.5755003408384348</v>
+        <v>0.5765886435684566</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.999999999996297</v>
       </c>
       <c r="P2">
-        <v>0.575500340817437</v>
+        <v>0.5762722271295351</v>
       </c>
       <c r="Q2">
-        <v>0.01827518544798402</v>
+        <v>60.1677610634032</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>-179.9817248150927</v>
+        <v>119.850281196398</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4960,58 +4960,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>5.971983414500375</v>
       </c>
       <c r="C3">
-        <v>5.746262529807013</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5.740649395966593</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>68.95852463915544</v>
       </c>
       <c r="F3">
-        <v>66.35212436836679</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>66.28730948169151</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0480062088627623</v>
+        <v>0.04800620886276573</v>
       </c>
       <c r="I3">
-        <v>0.9610933812275495</v>
+        <v>0.9610933812273449</v>
       </c>
       <c r="J3">
-        <v>0.1153518594949893</v>
+        <v>0.1153518594909623</v>
       </c>
       <c r="K3">
-        <v>2.416397540717259</v>
+        <v>2.416397540675816</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710869</v>
+        <v>0.1153518594711394</v>
       </c>
       <c r="M3">
-        <v>2.416397540675745</v>
+        <v>2.416397540675689</v>
       </c>
       <c r="N3">
-        <v>0.3837112302340936</v>
+        <v>0.5199773961133466</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.000000000006553</v>
       </c>
       <c r="P3">
-        <v>0.3837112302244141</v>
+        <v>0.5204858233912609</v>
       </c>
       <c r="Q3">
-        <v>-0.0704307420429455</v>
+        <v>73.96052963529452</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S3">
-        <v>179.929569257136</v>
+        <v>106.0233806110438</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5019,58 +5019,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.74766627504868</v>
       </c>
       <c r="C4">
-        <v>3.871245492976407</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.544120427165968</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>31.72731727085223</v>
       </c>
       <c r="F4">
-        <v>44.70129254938109</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>29.37697226950195</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7.179198268248202</v>
+        <v>7.179198268248255</v>
       </c>
       <c r="I4">
-        <v>2.381328006872913</v>
+        <v>2.381328006872716</v>
       </c>
       <c r="J4">
-        <v>1.113751880256999</v>
+        <v>1.113751880253148</v>
       </c>
       <c r="K4">
-        <v>3.006397543787027</v>
+        <v>3.006397543745555</v>
       </c>
       <c r="L4">
-        <v>1.113751880233082</v>
+        <v>1.113751880233356</v>
       </c>
       <c r="M4">
-        <v>3.00639754374558</v>
+        <v>3.006397543745526</v>
       </c>
       <c r="N4">
-        <v>0.7567045212037007</v>
+        <v>0.5600542419139701</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.00000000000088</v>
       </c>
       <c r="P4">
-        <v>0.7567045212037672</v>
+        <v>0.8522031570042652</v>
       </c>
       <c r="Q4">
-        <v>-8.312073893177622</v>
+        <v>31.62940090634079</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-89.99999999999631</v>
       </c>
       <c r="S4">
-        <v>171.6879261063769</v>
+        <v>124.0256852900353</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5078,58 +5078,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.608053223289025</v>
       </c>
       <c r="C5">
-        <v>2.764903772924683</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.101035304114947</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>18.56819922674327</v>
       </c>
       <c r="F5">
-        <v>31.92635875162956</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>24.26066596815344</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>14.28977970136567</v>
+        <v>14.28977970136578</v>
       </c>
       <c r="I5">
-        <v>3.82062465265064</v>
+        <v>3.820624652650447</v>
       </c>
       <c r="J5">
-        <v>2.112151900874842</v>
+        <v>2.112151900871204</v>
       </c>
       <c r="K5">
-        <v>3.596397547129635</v>
+        <v>3.596397547088158</v>
       </c>
       <c r="L5">
-        <v>2.112151900850923</v>
+        <v>2.112151900851419</v>
       </c>
       <c r="M5">
-        <v>3.596397547088281</v>
+        <v>3.596397547088229</v>
       </c>
       <c r="N5">
-        <v>0.7838620305992607</v>
+        <v>0.664765231631766</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.000000000000131</v>
       </c>
       <c r="P5">
-        <v>0.7838620305997251</v>
+        <v>0.8748124762338141</v>
       </c>
       <c r="Q5">
-        <v>-5.141094698590205</v>
+        <v>30.59148274614518</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-89.99999999999611</v>
       </c>
       <c r="S5">
-        <v>174.8589053009605</v>
+        <v>130.8537654848676</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5137,58 +5137,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.608053223289024</v>
       </c>
       <c r="C6">
-        <v>2.764903772924682</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.101035304114946</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>18.56819922674327</v>
       </c>
       <c r="F6">
-        <v>31.92635875162954</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>24.26066596815343</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>14.28977970136567</v>
+        <v>14.28977970136578</v>
       </c>
       <c r="I6">
-        <v>3.820624652650646</v>
+        <v>3.820624652650448</v>
       </c>
       <c r="J6">
-        <v>2.112151900874841</v>
+        <v>2.112151900871206</v>
       </c>
       <c r="K6">
-        <v>3.596397547129635</v>
+        <v>3.596397547088155</v>
       </c>
       <c r="L6">
-        <v>2.112151900850923</v>
+        <v>2.112151900851419</v>
       </c>
       <c r="M6">
-        <v>3.596397547088279</v>
+        <v>3.596397547088227</v>
       </c>
       <c r="N6">
-        <v>0.7838620305992609</v>
+        <v>0.664765231631766</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.000000000000132</v>
       </c>
       <c r="P6">
-        <v>0.7838620305997249</v>
+        <v>0.8748124762338141</v>
       </c>
       <c r="Q6">
-        <v>-5.141094698590184</v>
+        <v>30.59148274614519</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-89.99999999999611</v>
       </c>
       <c r="S6">
-        <v>174.8589053009605</v>
+        <v>130.8537654848676</v>
       </c>
     </row>
   </sheetData>
@@ -5268,58 +5268,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4.212323090189424</v>
       </c>
       <c r="C2">
-        <v>4.204500216346317</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4.206808800909243</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>267.5184457037994</v>
       </c>
       <c r="F2">
-        <v>267.0216264886925</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>267.1682412997662</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.476445250025133</v>
+        <v>1.476445250025187</v>
       </c>
       <c r="I2">
-        <v>14.90759653787144</v>
+        <v>14.90759653787019</v>
       </c>
       <c r="J2">
-        <v>1.504993721246251</v>
+        <v>1.50499372264878</v>
       </c>
       <c r="K2">
-        <v>15.0499369732484</v>
+        <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993720695301</v>
+        <v>1.504993720695429</v>
       </c>
       <c r="M2">
-        <v>15.04993697229334</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.5755003408384348</v>
+        <v>0.5765886435684566</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.999999999996297</v>
       </c>
       <c r="P2">
-        <v>0.575500340817437</v>
+        <v>0.5762722271295351</v>
       </c>
       <c r="Q2">
-        <v>0.01827518544798402</v>
+        <v>60.1677610634032</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>-179.9817248150927</v>
+        <v>119.850281196398</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5327,58 +5327,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>5.971983414500375</v>
       </c>
       <c r="C3">
-        <v>5.746262529807013</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5.740649395966593</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>68.95852463915544</v>
       </c>
       <c r="F3">
-        <v>66.35212436836679</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>66.28730948169151</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0480062088627623</v>
+        <v>0.04800620886276573</v>
       </c>
       <c r="I3">
-        <v>0.9610933812275495</v>
+        <v>0.9610933812273449</v>
       </c>
       <c r="J3">
-        <v>0.1153518594949893</v>
+        <v>0.1153518594909623</v>
       </c>
       <c r="K3">
-        <v>2.416397540717259</v>
+        <v>2.416397540675816</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710869</v>
+        <v>0.1153518594711394</v>
       </c>
       <c r="M3">
-        <v>2.416397540675745</v>
+        <v>2.416397540675689</v>
       </c>
       <c r="N3">
-        <v>0.3837112302340936</v>
+        <v>0.5199773961133466</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.000000000006553</v>
       </c>
       <c r="P3">
-        <v>0.3837112302244141</v>
+        <v>0.5204858233912609</v>
       </c>
       <c r="Q3">
-        <v>-0.0704307420429455</v>
+        <v>73.96052963529452</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-89.99999999999599</v>
       </c>
       <c r="S3">
-        <v>179.929569257136</v>
+        <v>106.0233806110438</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5386,58 +5386,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.74766627504868</v>
       </c>
       <c r="C4">
-        <v>3.871245492976407</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.544120427165968</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>31.72731727085223</v>
       </c>
       <c r="F4">
-        <v>44.70129254938109</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>29.37697226950195</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7.179198268248202</v>
+        <v>7.179198268248255</v>
       </c>
       <c r="I4">
-        <v>2.381328006872913</v>
+        <v>2.381328006872716</v>
       </c>
       <c r="J4">
-        <v>1.113751880256999</v>
+        <v>1.113751880253148</v>
       </c>
       <c r="K4">
-        <v>3.006397543787027</v>
+        <v>3.006397543745555</v>
       </c>
       <c r="L4">
-        <v>1.113751880233082</v>
+        <v>1.113751880233356</v>
       </c>
       <c r="M4">
-        <v>3.00639754374558</v>
+        <v>3.006397543745526</v>
       </c>
       <c r="N4">
-        <v>0.7567045212037007</v>
+        <v>0.5600542419139701</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.00000000000088</v>
       </c>
       <c r="P4">
-        <v>0.7567045212037672</v>
+        <v>0.8522031570042652</v>
       </c>
       <c r="Q4">
-        <v>-8.312073893177622</v>
+        <v>31.62940090634079</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-89.99999999999631</v>
       </c>
       <c r="S4">
-        <v>171.6879261063769</v>
+        <v>124.0256852900353</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5445,58 +5445,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.608053223289025</v>
       </c>
       <c r="C5">
-        <v>2.764903772924683</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.101035304114947</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>18.56819922674327</v>
       </c>
       <c r="F5">
-        <v>31.92635875162956</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>24.26066596815344</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>14.28977970136567</v>
+        <v>14.28977970136578</v>
       </c>
       <c r="I5">
-        <v>3.82062465265064</v>
+        <v>3.820624652650447</v>
       </c>
       <c r="J5">
-        <v>2.112151900874842</v>
+        <v>2.112151900871204</v>
       </c>
       <c r="K5">
-        <v>3.596397547129635</v>
+        <v>3.596397547088158</v>
       </c>
       <c r="L5">
-        <v>2.112151900850923</v>
+        <v>2.112151900851419</v>
       </c>
       <c r="M5">
-        <v>3.596397547088281</v>
+        <v>3.596397547088229</v>
       </c>
       <c r="N5">
-        <v>0.7838620305992607</v>
+        <v>0.664765231631766</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.000000000000131</v>
       </c>
       <c r="P5">
-        <v>0.7838620305997251</v>
+        <v>0.8748124762338141</v>
       </c>
       <c r="Q5">
-        <v>-5.141094698590205</v>
+        <v>30.59148274614518</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-89.99999999999611</v>
       </c>
       <c r="S5">
-        <v>174.8589053009605</v>
+        <v>130.8537654848676</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5504,58 +5504,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.608053223289024</v>
       </c>
       <c r="C6">
-        <v>2.764903772924682</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.101035304114946</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>18.56819922674327</v>
       </c>
       <c r="F6">
-        <v>31.92635875162954</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>24.26066596815343</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>14.28977970136567</v>
+        <v>14.28977970136578</v>
       </c>
       <c r="I6">
-        <v>3.820624652650646</v>
+        <v>3.820624652650448</v>
       </c>
       <c r="J6">
-        <v>2.112151900874841</v>
+        <v>2.112151900871206</v>
       </c>
       <c r="K6">
-        <v>3.596397547129635</v>
+        <v>3.596397547088155</v>
       </c>
       <c r="L6">
-        <v>2.112151900850923</v>
+        <v>2.112151900851419</v>
       </c>
       <c r="M6">
-        <v>3.596397547088279</v>
+        <v>3.596397547088227</v>
       </c>
       <c r="N6">
-        <v>0.7838620305992609</v>
+        <v>0.664765231631766</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.000000000000132</v>
       </c>
       <c r="P6">
-        <v>0.7838620305997249</v>
+        <v>0.8748124762338141</v>
       </c>
       <c r="Q6">
-        <v>-5.141094698590184</v>
+        <v>30.59148274614519</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-89.99999999999611</v>
       </c>
       <c r="S6">
-        <v>174.8589053009605</v>
+        <v>130.8537654848676</v>
       </c>
     </row>
   </sheetData>
@@ -5635,58 +5635,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.019799330972708</v>
       </c>
       <c r="C2">
-        <v>3.017067502804791</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.015672317100239</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>191.7830152299319</v>
       </c>
       <c r="F2">
-        <v>191.609520839838</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>191.5209146472078</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.476445250025133</v>
+        <v>1.476445250025187</v>
       </c>
       <c r="I2">
-        <v>14.90759653787144</v>
+        <v>14.90759653787019</v>
       </c>
       <c r="J2">
-        <v>1.504993721246251</v>
+        <v>1.50499372264878</v>
       </c>
       <c r="K2">
-        <v>15.0499369732484</v>
+        <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993720695301</v>
+        <v>1.504993720695429</v>
       </c>
       <c r="M2">
-        <v>15.04993697229334</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.7463613276688932</v>
+        <v>0.6175484936549257</v>
       </c>
       <c r="O2">
-        <v>0.3354590831689806</v>
+        <v>0.9999999999908357</v>
       </c>
       <c r="P2">
-        <v>0.6176655355599789</v>
+        <v>0.7469868768512276</v>
       </c>
       <c r="Q2">
-        <v>8.09538963285218</v>
+        <v>41.80899273589835</v>
       </c>
       <c r="R2">
-        <v>-117.0248837768022</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>161.7211055113619</v>
+        <v>128.0401067669047</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5694,58 +5694,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.34248872739262</v>
       </c>
       <c r="C3">
-        <v>1.351101123881146</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.27657050257597</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>15.50172456288334</v>
       </c>
       <c r="F3">
-        <v>15.60117195150371</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>14.74056646603544</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0480062088627623</v>
+        <v>0.04800620886276573</v>
       </c>
       <c r="I3">
-        <v>0.9610933812275495</v>
+        <v>0.9610933812273449</v>
       </c>
       <c r="J3">
-        <v>0.1153518594949893</v>
+        <v>0.1153518594909623</v>
       </c>
       <c r="K3">
-        <v>2.416397540717259</v>
+        <v>2.416397540675816</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710869</v>
+        <v>0.1153518594711394</v>
       </c>
       <c r="M3">
-        <v>2.416397540675745</v>
+        <v>2.416397540675689</v>
       </c>
       <c r="N3">
-        <v>0.9305405005570508</v>
+        <v>0.8379929791010424</v>
       </c>
       <c r="O3">
-        <v>0.7848521014139239</v>
+        <v>1.000000000000763</v>
       </c>
       <c r="P3">
-        <v>0.8463562973200961</v>
+        <v>0.9390604356298995</v>
       </c>
       <c r="Q3">
-        <v>21.20494723733822</v>
+        <v>29.30782544019303</v>
       </c>
       <c r="R3">
-        <v>-100.4045966787053</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S3">
-        <v>149.0426517080645</v>
+        <v>141.0916992016996</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5753,58 +5753,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.024643545051074</v>
       </c>
       <c r="C4">
-        <v>1.199957377888807</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9724110168710458</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>11.831564531173</v>
       </c>
       <c r="F4">
-        <v>13.8559143028036</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>11.22843524706912</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7.179198268248202</v>
+        <v>7.179198268248255</v>
       </c>
       <c r="I4">
-        <v>2.381328006872913</v>
+        <v>2.381328006872716</v>
       </c>
       <c r="J4">
-        <v>1.113751880256999</v>
+        <v>1.113751880253148</v>
       </c>
       <c r="K4">
-        <v>3.006397543787027</v>
+        <v>3.006397543745555</v>
       </c>
       <c r="L4">
-        <v>1.113751880233082</v>
+        <v>1.113751880233356</v>
       </c>
       <c r="M4">
-        <v>3.00639754374558</v>
+        <v>3.006397543745526</v>
       </c>
       <c r="N4">
-        <v>0.9054384145060415</v>
+        <v>0.8362524769735679</v>
       </c>
       <c r="O4">
-        <v>0.7019303077931054</v>
+        <v>1.000000000000372</v>
       </c>
       <c r="P4">
-        <v>0.8514129462775721</v>
+        <v>0.9180075919745204</v>
       </c>
       <c r="Q4">
-        <v>19.90061784524741</v>
+        <v>30.80741995392377</v>
       </c>
       <c r="R4">
-        <v>-97.63434507043144</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S4">
-        <v>152.9264757634079</v>
+        <v>141.4811203018104</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5812,58 +5812,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.8165211222977987</v>
       </c>
       <c r="C5">
-        <v>1.057390965834774</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.8394791925479449</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>9.428373795152989</v>
       </c>
       <c r="F5">
-        <v>12.2096991752677</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>9.693470755932914</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>14.28977970136567</v>
+        <v>14.28977970136578</v>
       </c>
       <c r="I5">
-        <v>3.82062465265064</v>
+        <v>3.820624652650447</v>
       </c>
       <c r="J5">
-        <v>2.112151900874842</v>
+        <v>2.112151900871204</v>
       </c>
       <c r="K5">
-        <v>3.596397547129635</v>
+        <v>3.596397547088158</v>
       </c>
       <c r="L5">
-        <v>2.112151900850923</v>
+        <v>2.112151900851419</v>
       </c>
       <c r="M5">
-        <v>3.596397547088281</v>
+        <v>3.596397547088229</v>
       </c>
       <c r="N5">
-        <v>0.8824007261855167</v>
+        <v>0.8318421429844037</v>
       </c>
       <c r="O5">
-        <v>0.633773235077486</v>
+        <v>1.000000000000193</v>
       </c>
       <c r="P5">
-        <v>0.8516705368398013</v>
+        <v>0.9045377971462235</v>
       </c>
       <c r="Q5">
-        <v>18.6039434716845</v>
+        <v>31.68194032262535</v>
       </c>
       <c r="R5">
-        <v>-95.39765209812421</v>
+        <v>-89.99999999999622</v>
       </c>
       <c r="S5">
-        <v>155.7752070444128</v>
+        <v>141.4979263676711</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5871,58 +5871,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.8165211222977987</v>
       </c>
       <c r="C6">
-        <v>1.057390965834774</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.839479192547945</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>9.428373795152989</v>
       </c>
       <c r="F6">
-        <v>12.2096991752677</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>9.693470755932914</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>14.28977970136567</v>
+        <v>14.28977970136578</v>
       </c>
       <c r="I6">
-        <v>3.820624652650646</v>
+        <v>3.820624652650448</v>
       </c>
       <c r="J6">
-        <v>2.112151900874841</v>
+        <v>2.112151900871206</v>
       </c>
       <c r="K6">
-        <v>3.596397547129635</v>
+        <v>3.596397547088155</v>
       </c>
       <c r="L6">
-        <v>2.112151900850923</v>
+        <v>2.112151900851419</v>
       </c>
       <c r="M6">
-        <v>3.596397547088279</v>
+        <v>3.596397547088227</v>
       </c>
       <c r="N6">
-        <v>0.8824007261855167</v>
+        <v>0.8318421429844038</v>
       </c>
       <c r="O6">
-        <v>0.633773235077486</v>
+        <v>1.000000000000193</v>
       </c>
       <c r="P6">
-        <v>0.851670536839801</v>
+        <v>0.9045377971462233</v>
       </c>
       <c r="Q6">
-        <v>18.6039434716845</v>
+        <v>31.68194032262535</v>
       </c>
       <c r="R6">
-        <v>-95.39765209812421</v>
+        <v>-89.99999999999622</v>
       </c>
       <c r="S6">
-        <v>155.7752070444128</v>
+        <v>141.4979263676711</v>
       </c>
     </row>
   </sheetData>
@@ -6002,58 +6002,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.019799330972708</v>
       </c>
       <c r="C2">
-        <v>3.017067502804791</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.015672317100239</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>191.7830152299319</v>
       </c>
       <c r="F2">
-        <v>191.609520839838</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>191.5209146472078</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.476445250025133</v>
+        <v>1.476445250025187</v>
       </c>
       <c r="I2">
-        <v>14.90759653787144</v>
+        <v>14.90759653787019</v>
       </c>
       <c r="J2">
-        <v>1.504993721246251</v>
+        <v>1.50499372264878</v>
       </c>
       <c r="K2">
-        <v>15.0499369732484</v>
+        <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993720695301</v>
+        <v>1.504993720695429</v>
       </c>
       <c r="M2">
-        <v>15.04993697229334</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.7463613276688932</v>
+        <v>0.6175484936549257</v>
       </c>
       <c r="O2">
-        <v>0.3354590831689806</v>
+        <v>0.9999999999908357</v>
       </c>
       <c r="P2">
-        <v>0.6176655355599789</v>
+        <v>0.7469868768512276</v>
       </c>
       <c r="Q2">
-        <v>8.09538963285218</v>
+        <v>41.80899273589835</v>
       </c>
       <c r="R2">
-        <v>-117.0248837768022</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>161.7211055113619</v>
+        <v>128.0401067669047</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6061,58 +6061,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.34248872739262</v>
       </c>
       <c r="C3">
-        <v>1.351101123881146</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.27657050257597</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>15.50172456288334</v>
       </c>
       <c r="F3">
-        <v>15.60117195150371</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>14.74056646603544</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0480062088627623</v>
+        <v>0.04800620886276573</v>
       </c>
       <c r="I3">
-        <v>0.9610933812275495</v>
+        <v>0.9610933812273449</v>
       </c>
       <c r="J3">
-        <v>0.1153518594949893</v>
+        <v>0.1153518594909623</v>
       </c>
       <c r="K3">
-        <v>2.416397540717259</v>
+        <v>2.416397540675816</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710869</v>
+        <v>0.1153518594711394</v>
       </c>
       <c r="M3">
-        <v>2.416397540675745</v>
+        <v>2.416397540675689</v>
       </c>
       <c r="N3">
-        <v>0.9305405005570508</v>
+        <v>0.8379929791010424</v>
       </c>
       <c r="O3">
-        <v>0.7848521014139239</v>
+        <v>1.000000000000763</v>
       </c>
       <c r="P3">
-        <v>0.8463562973200961</v>
+        <v>0.9390604356298995</v>
       </c>
       <c r="Q3">
-        <v>21.20494723733822</v>
+        <v>29.30782544019303</v>
       </c>
       <c r="R3">
-        <v>-100.4045966787053</v>
+        <v>-89.99999999999643</v>
       </c>
       <c r="S3">
-        <v>149.0426517080645</v>
+        <v>141.0916992016996</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6120,58 +6120,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.024643545051074</v>
       </c>
       <c r="C4">
-        <v>1.199957377888807</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9724110168710458</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>11.831564531173</v>
       </c>
       <c r="F4">
-        <v>13.8559143028036</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>11.22843524706912</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7.179198268248202</v>
+        <v>7.179198268248255</v>
       </c>
       <c r="I4">
-        <v>2.381328006872913</v>
+        <v>2.381328006872716</v>
       </c>
       <c r="J4">
-        <v>1.113751880256999</v>
+        <v>1.113751880253148</v>
       </c>
       <c r="K4">
-        <v>3.006397543787027</v>
+        <v>3.006397543745555</v>
       </c>
       <c r="L4">
-        <v>1.113751880233082</v>
+        <v>1.113751880233356</v>
       </c>
       <c r="M4">
-        <v>3.00639754374558</v>
+        <v>3.006397543745526</v>
       </c>
       <c r="N4">
-        <v>0.9054384145060415</v>
+        <v>0.8362524769735679</v>
       </c>
       <c r="O4">
-        <v>0.7019303077931054</v>
+        <v>1.000000000000372</v>
       </c>
       <c r="P4">
-        <v>0.8514129462775721</v>
+        <v>0.9180075919745204</v>
       </c>
       <c r="Q4">
-        <v>19.90061784524741</v>
+        <v>30.80741995392377</v>
       </c>
       <c r="R4">
-        <v>-97.63434507043144</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S4">
-        <v>152.9264757634079</v>
+        <v>141.4811203018104</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6179,58 +6179,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.8165211222977987</v>
       </c>
       <c r="C5">
-        <v>1.057390965834774</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.8394791925479449</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>9.428373795152989</v>
       </c>
       <c r="F5">
-        <v>12.2096991752677</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>9.693470755932914</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>14.28977970136567</v>
+        <v>14.28977970136578</v>
       </c>
       <c r="I5">
-        <v>3.82062465265064</v>
+        <v>3.820624652650447</v>
       </c>
       <c r="J5">
-        <v>2.112151900874842</v>
+        <v>2.112151900871204</v>
       </c>
       <c r="K5">
-        <v>3.596397547129635</v>
+        <v>3.596397547088158</v>
       </c>
       <c r="L5">
-        <v>2.112151900850923</v>
+        <v>2.112151900851419</v>
       </c>
       <c r="M5">
-        <v>3.596397547088281</v>
+        <v>3.596397547088229</v>
       </c>
       <c r="N5">
-        <v>0.8824007261855167</v>
+        <v>0.8318421429844037</v>
       </c>
       <c r="O5">
-        <v>0.633773235077486</v>
+        <v>1.000000000000193</v>
       </c>
       <c r="P5">
-        <v>0.8516705368398013</v>
+        <v>0.9045377971462235</v>
       </c>
       <c r="Q5">
-        <v>18.6039434716845</v>
+        <v>31.68194032262535</v>
       </c>
       <c r="R5">
-        <v>-95.39765209812421</v>
+        <v>-89.99999999999622</v>
       </c>
       <c r="S5">
-        <v>155.7752070444128</v>
+        <v>141.4979263676711</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6238,58 +6238,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.8165211222977987</v>
       </c>
       <c r="C6">
-        <v>1.057390965834774</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.839479192547945</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>9.428373795152989</v>
       </c>
       <c r="F6">
-        <v>12.2096991752677</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>9.693470755932914</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>14.28977970136567</v>
+        <v>14.28977970136578</v>
       </c>
       <c r="I6">
-        <v>3.820624652650646</v>
+        <v>3.820624652650448</v>
       </c>
       <c r="J6">
-        <v>2.112151900874841</v>
+        <v>2.112151900871206</v>
       </c>
       <c r="K6">
-        <v>3.596397547129635</v>
+        <v>3.596397547088155</v>
       </c>
       <c r="L6">
-        <v>2.112151900850923</v>
+        <v>2.112151900851419</v>
       </c>
       <c r="M6">
-        <v>3.596397547088279</v>
+        <v>3.596397547088227</v>
       </c>
       <c r="N6">
-        <v>0.8824007261855167</v>
+        <v>0.8318421429844038</v>
       </c>
       <c r="O6">
-        <v>0.633773235077486</v>
+        <v>1.000000000000193</v>
       </c>
       <c r="P6">
-        <v>0.851670536839801</v>
+        <v>0.9045377971462233</v>
       </c>
       <c r="Q6">
-        <v>18.6039434716845</v>
+        <v>31.68194032262535</v>
       </c>
       <c r="R6">
-        <v>-95.39765209812421</v>
+        <v>-89.99999999999622</v>
       </c>
       <c r="S6">
-        <v>155.7752070444128</v>
+        <v>141.4979263676711</v>
       </c>
     </row>
   </sheetData>
@@ -6369,58 +6369,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.263406116091551</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>5.254784886328722</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5.257332778285277</v>
       </c>
       <c r="E2">
-        <v>334.2711831777758</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>333.7236615521012</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>333.8854744238693</v>
       </c>
       <c r="H2">
-        <v>1.302220645038779</v>
+        <v>1.302220645038725</v>
       </c>
       <c r="I2">
-        <v>13.13357405514232</v>
+        <v>13.13357405514342</v>
       </c>
       <c r="J2">
-        <v>1.324394473163984</v>
+        <v>1.324394474185776</v>
       </c>
       <c r="K2">
-        <v>13.24394453564038</v>
+        <v>13.24394453578181</v>
       </c>
       <c r="L2">
-        <v>1.324394474104344</v>
+        <v>1.324394474104231</v>
       </c>
       <c r="M2">
-        <v>13.24394453563962</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6343475260327254</v>
+        <v>0.6332935604015745</v>
       </c>
       <c r="O2">
-        <v>1.100000023884802</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6340400984523166</v>
+        <v>0.633293560417666</v>
       </c>
       <c r="Q2">
-        <v>60.14776954401343</v>
+        <v>0.0161263769191731</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>119.8681757387986</v>
+        <v>-179.9838736221539</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6428,58 +6428,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>6.909848175428154</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>6.656253277127973</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>6.653846011351294</v>
       </c>
       <c r="E3">
-        <v>79.78805408285778</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>76.85979242688327</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>76.83199571599975</v>
       </c>
       <c r="H3">
-        <v>0.04235650252306639</v>
+        <v>0.04235650252306203</v>
       </c>
       <c r="I3">
-        <v>0.8917025845793023</v>
+        <v>0.8917025845794858</v>
       </c>
       <c r="J3">
-        <v>0.107731905317869</v>
+        <v>0.107731905406386</v>
       </c>
       <c r="K3">
-        <v>2.30843869464295</v>
+        <v>2.308438694631208</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132363</v>
+        <v>0.1077319054131889</v>
       </c>
       <c r="M3">
-        <v>2.308438694642829</v>
+        <v>2.30843869464288</v>
       </c>
       <c r="N3">
-        <v>0.5711070883988375</v>
+        <v>0.4152062737902777</v>
       </c>
       <c r="O3">
-        <v>1.100000023844383</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5713137067019788</v>
+        <v>0.4152062738035633</v>
       </c>
       <c r="Q3">
-        <v>74.33438202440513</v>
+        <v>-0.02683260972620329</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999596</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>105.6598069810126</v>
+        <v>179.9731673889169</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6487,58 +6487,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3.983205985585155</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4.890299894454539</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.074581173286805</v>
       </c>
       <c r="E4">
-        <v>45.99410096030636</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>56.46831920962654</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>35.50220536084985</v>
       </c>
       <c r="H4">
-        <v>3.756194024324211</v>
+        <v>3.756194024324175</v>
       </c>
       <c r="I4">
-        <v>2.351750953160546</v>
+        <v>2.351750953160728</v>
       </c>
       <c r="J4">
-        <v>0.6277319162687583</v>
+        <v>0.627731916357028</v>
       </c>
       <c r="K4">
-        <v>2.89843869796003</v>
+        <v>2.898438697948213</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640331</v>
+        <v>0.6277319163638758</v>
       </c>
       <c r="M4">
-        <v>2.898438697959961</v>
+        <v>2.898438697960007</v>
       </c>
       <c r="N4">
-        <v>0.5307908469946169</v>
+        <v>0.7580900664194924</v>
       </c>
       <c r="O4">
-        <v>1.100000023848398</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8442536647143238</v>
+        <v>0.7580900664245824</v>
       </c>
       <c r="Q4">
-        <v>41.84201685276578</v>
+        <v>-10.9913125124434</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999628</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>117.9292480534404</v>
+        <v>169.0086874874627</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6546,58 +6546,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2.619406804235623</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3.667011208147285</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.529552560941497</v>
       </c>
       <c r="E5">
-        <v>30.24630447085148</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>42.3429981629042</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>29.20875703977761</v>
       </c>
       <c r="H5">
-        <v>7.459610837159167</v>
+        <v>7.459610837159099</v>
       </c>
       <c r="I5">
-        <v>3.814808185419611</v>
+        <v>3.814808185419793</v>
       </c>
       <c r="J5">
-        <v>1.147731927075923</v>
+        <v>1.147731927164048</v>
       </c>
       <c r="K5">
-        <v>3.488438701416144</v>
+        <v>3.488438701404311</v>
       </c>
       <c r="L5">
-        <v>1.14773192717118</v>
+        <v>1.147731927170907</v>
       </c>
       <c r="M5">
-        <v>3.488438701416125</v>
+        <v>3.488438701416172</v>
       </c>
       <c r="N5">
-        <v>0.6238454628223883</v>
+        <v>0.8170022497395296</v>
       </c>
       <c r="O5">
-        <v>1.100000023847146</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9043687566081289</v>
+        <v>0.8170022497429723</v>
       </c>
       <c r="Q5">
-        <v>34.69933806084441</v>
+        <v>-7.597588371982598</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999619</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>124.5503549504857</v>
+        <v>172.4024116279919</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6605,58 +6605,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>2.619406804235623</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3.667011208147284</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.529552560941495</v>
       </c>
       <c r="E6">
-        <v>30.24630447085149</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>42.34299816290418</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>29.20875703977759</v>
       </c>
       <c r="H6">
-        <v>7.459610837159166</v>
+        <v>7.459610837159103</v>
       </c>
       <c r="I6">
-        <v>3.814808185419611</v>
+        <v>3.814808185419791</v>
       </c>
       <c r="J6">
-        <v>1.147731927075922</v>
+        <v>1.14773192716405</v>
       </c>
       <c r="K6">
-        <v>3.488438701416144</v>
+        <v>3.488438701404312</v>
       </c>
       <c r="L6">
-        <v>1.14773192717118</v>
+        <v>1.147731927170906</v>
       </c>
       <c r="M6">
-        <v>3.488438701416125</v>
+        <v>3.488438701416173</v>
       </c>
       <c r="N6">
-        <v>0.6238454628223883</v>
+        <v>0.8170022497395295</v>
       </c>
       <c r="O6">
-        <v>1.100000023847146</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9043687566081289</v>
+        <v>0.8170022497429722</v>
       </c>
       <c r="Q6">
-        <v>34.69933806084442</v>
+        <v>-7.597588371982567</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999619</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>124.5503549504857</v>
+        <v>172.4024116279919</v>
       </c>
     </row>
   </sheetData>
@@ -6736,58 +6736,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.263406116091551</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>5.254784886328722</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5.257332778285277</v>
       </c>
       <c r="E2">
-        <v>334.2711831777758</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>333.7236615521012</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>333.8854744238693</v>
       </c>
       <c r="H2">
-        <v>1.302220645038779</v>
+        <v>1.302220645038725</v>
       </c>
       <c r="I2">
-        <v>13.13357405514232</v>
+        <v>13.13357405514342</v>
       </c>
       <c r="J2">
-        <v>1.324394473163984</v>
+        <v>1.324394474185776</v>
       </c>
       <c r="K2">
-        <v>13.24394453564038</v>
+        <v>13.24394453578181</v>
       </c>
       <c r="L2">
-        <v>1.324394474104344</v>
+        <v>1.324394474104231</v>
       </c>
       <c r="M2">
-        <v>13.24394453563962</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6343475260327254</v>
+        <v>0.6332935604015745</v>
       </c>
       <c r="O2">
-        <v>1.100000023884802</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6340400984523166</v>
+        <v>0.633293560417666</v>
       </c>
       <c r="Q2">
-        <v>60.14776954401343</v>
+        <v>0.0161263769191731</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>119.8681757387986</v>
+        <v>-179.9838736221539</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6795,58 +6795,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>6.909848175428154</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>6.656253277127973</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>6.653846011351294</v>
       </c>
       <c r="E3">
-        <v>79.78805408285778</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>76.85979242688327</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>76.83199571599975</v>
       </c>
       <c r="H3">
-        <v>0.04235650252306639</v>
+        <v>0.04235650252306203</v>
       </c>
       <c r="I3">
-        <v>0.8917025845793023</v>
+        <v>0.8917025845794858</v>
       </c>
       <c r="J3">
-        <v>0.107731905317869</v>
+        <v>0.107731905406386</v>
       </c>
       <c r="K3">
-        <v>2.30843869464295</v>
+        <v>2.308438694631208</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132363</v>
+        <v>0.1077319054131889</v>
       </c>
       <c r="M3">
-        <v>2.308438694642829</v>
+        <v>2.30843869464288</v>
       </c>
       <c r="N3">
-        <v>0.5711070883988375</v>
+        <v>0.4152062737902777</v>
       </c>
       <c r="O3">
-        <v>1.100000023844383</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5713137067019788</v>
+        <v>0.4152062738035633</v>
       </c>
       <c r="Q3">
-        <v>74.33438202440513</v>
+        <v>-0.02683260972620329</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999596</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>105.6598069810126</v>
+        <v>179.9731673889169</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6854,58 +6854,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3.983205985585155</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4.890299894454539</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.074581173286805</v>
       </c>
       <c r="E4">
-        <v>45.99410096030636</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>56.46831920962654</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>35.50220536084985</v>
       </c>
       <c r="H4">
-        <v>3.756194024324211</v>
+        <v>3.756194024324175</v>
       </c>
       <c r="I4">
-        <v>2.351750953160546</v>
+        <v>2.351750953160728</v>
       </c>
       <c r="J4">
-        <v>0.6277319162687583</v>
+        <v>0.627731916357028</v>
       </c>
       <c r="K4">
-        <v>2.89843869796003</v>
+        <v>2.898438697948213</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640331</v>
+        <v>0.6277319163638758</v>
       </c>
       <c r="M4">
-        <v>2.898438697959961</v>
+        <v>2.898438697960007</v>
       </c>
       <c r="N4">
-        <v>0.5307908469946169</v>
+        <v>0.7580900664194924</v>
       </c>
       <c r="O4">
-        <v>1.100000023848398</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8442536647143238</v>
+        <v>0.7580900664245824</v>
       </c>
       <c r="Q4">
-        <v>41.84201685276578</v>
+        <v>-10.9913125124434</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999628</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>117.9292480534404</v>
+        <v>169.0086874874627</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6913,58 +6913,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2.619406804235623</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3.667011208147285</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.529552560941497</v>
       </c>
       <c r="E5">
-        <v>30.24630447085148</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>42.3429981629042</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>29.20875703977761</v>
       </c>
       <c r="H5">
-        <v>7.459610837159167</v>
+        <v>7.459610837159099</v>
       </c>
       <c r="I5">
-        <v>3.814808185419611</v>
+        <v>3.814808185419793</v>
       </c>
       <c r="J5">
-        <v>1.147731927075923</v>
+        <v>1.147731927164048</v>
       </c>
       <c r="K5">
-        <v>3.488438701416144</v>
+        <v>3.488438701404311</v>
       </c>
       <c r="L5">
-        <v>1.14773192717118</v>
+        <v>1.147731927170907</v>
       </c>
       <c r="M5">
-        <v>3.488438701416125</v>
+        <v>3.488438701416172</v>
       </c>
       <c r="N5">
-        <v>0.6238454628223883</v>
+        <v>0.8170022497395296</v>
       </c>
       <c r="O5">
-        <v>1.100000023847146</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9043687566081289</v>
+        <v>0.8170022497429723</v>
       </c>
       <c r="Q5">
-        <v>34.69933806084441</v>
+        <v>-7.597588371982598</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999619</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>124.5503549504857</v>
+        <v>172.4024116279919</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6972,58 +6972,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>2.619406804235623</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3.667011208147284</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.529552560941495</v>
       </c>
       <c r="E6">
-        <v>30.24630447085149</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>42.34299816290418</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>29.20875703977759</v>
       </c>
       <c r="H6">
-        <v>7.459610837159166</v>
+        <v>7.459610837159103</v>
       </c>
       <c r="I6">
-        <v>3.814808185419611</v>
+        <v>3.814808185419791</v>
       </c>
       <c r="J6">
-        <v>1.147731927075922</v>
+        <v>1.14773192716405</v>
       </c>
       <c r="K6">
-        <v>3.488438701416144</v>
+        <v>3.488438701404312</v>
       </c>
       <c r="L6">
-        <v>1.14773192717118</v>
+        <v>1.147731927170906</v>
       </c>
       <c r="M6">
-        <v>3.488438701416125</v>
+        <v>3.488438701416173</v>
       </c>
       <c r="N6">
-        <v>0.6238454628223883</v>
+        <v>0.8170022497395295</v>
       </c>
       <c r="O6">
-        <v>1.100000023847146</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9043687566081289</v>
+        <v>0.8170022497429722</v>
       </c>
       <c r="Q6">
-        <v>34.69933806084442</v>
+        <v>-7.597588371982567</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999619</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>124.5503549504857</v>
+        <v>172.4024116279919</v>
       </c>
     </row>
   </sheetData>
@@ -7103,58 +7103,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.624940474846058</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.622289782670551</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.620634380647762</v>
       </c>
       <c r="E2">
-        <v>230.2146394843616</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>230.0462979218441</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>229.9411657734619</v>
       </c>
       <c r="H2">
-        <v>1.302220645038779</v>
+        <v>1.302220645038725</v>
       </c>
       <c r="I2">
-        <v>13.13357405514232</v>
+        <v>13.13357405514342</v>
       </c>
       <c r="J2">
-        <v>1.324394473163984</v>
+        <v>1.324394474185776</v>
       </c>
       <c r="K2">
-        <v>13.24394453564038</v>
+        <v>13.24394453578181</v>
       </c>
       <c r="L2">
-        <v>1.324394474104344</v>
+        <v>1.324394474104231</v>
       </c>
       <c r="M2">
-        <v>13.24394453563962</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6910350761596569</v>
+        <v>0.8370081355091836</v>
       </c>
       <c r="O2">
-        <v>1.100000023874117</v>
+        <v>0.4028253111899554</v>
       </c>
       <c r="P2">
-        <v>0.8375829381608167</v>
+        <v>0.6911934857615384</v>
       </c>
       <c r="Q2">
-        <v>40.43279153111713</v>
+        <v>8.945076236609326</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999652</v>
+        <v>-115.8807585964508</v>
       </c>
       <c r="S2">
-        <v>128.9019448775642</v>
+        <v>160.3632685851118</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7162,58 +7162,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.490708671254766</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.500483089525901</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.418459205771826</v>
       </c>
       <c r="E3">
-        <v>17.21322105264497</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>17.32608631304521</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>16.37895608573734</v>
       </c>
       <c r="H3">
-        <v>0.04235650252306639</v>
+        <v>0.04235650252306203</v>
       </c>
       <c r="I3">
-        <v>0.8917025845793023</v>
+        <v>0.8917025845794858</v>
       </c>
       <c r="J3">
-        <v>0.107731905317869</v>
+        <v>0.107731905406386</v>
       </c>
       <c r="K3">
-        <v>2.30843869464295</v>
+        <v>2.308438694631208</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132363</v>
+        <v>0.1077319054131889</v>
       </c>
       <c r="M3">
-        <v>2.308438694642829</v>
+        <v>2.30843869464288</v>
       </c>
       <c r="N3">
-        <v>0.9282437459573998</v>
+        <v>1.027154900637619</v>
       </c>
       <c r="O3">
-        <v>1.100000023844591</v>
+        <v>0.8723446855816874</v>
       </c>
       <c r="P3">
-        <v>1.036054827732469</v>
+        <v>0.9370212414505737</v>
       </c>
       <c r="Q3">
-        <v>29.26272628975795</v>
+        <v>21.5116854508782</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-100.0510163395943</v>
       </c>
       <c r="S3">
-        <v>141.4079909551121</v>
+        <v>149.0209319720996</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7221,58 +7221,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.245288291711345</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.367510898951779</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.181818645416918</v>
       </c>
       <c r="E4">
-        <v>14.37935060876469</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>15.79065571259113</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>13.64646626129553</v>
       </c>
       <c r="H4">
-        <v>3.756194024324211</v>
+        <v>3.756194024324175</v>
       </c>
       <c r="I4">
-        <v>2.351750953160546</v>
+        <v>2.351750953160728</v>
       </c>
       <c r="J4">
-        <v>0.6277319162687583</v>
+        <v>0.627731916357028</v>
       </c>
       <c r="K4">
-        <v>2.89843869796003</v>
+        <v>2.898438697948213</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640331</v>
+        <v>0.6277319163638758</v>
       </c>
       <c r="M4">
-        <v>2.898438697959961</v>
+        <v>2.898438697960007</v>
       </c>
       <c r="N4">
-        <v>0.9154105614346412</v>
+        <v>1.007885130085947</v>
       </c>
       <c r="O4">
-        <v>1.10000002384432</v>
+        <v>0.8020156209384898</v>
       </c>
       <c r="P4">
-        <v>1.016159979689186</v>
+        <v>0.9264810374263683</v>
       </c>
       <c r="Q4">
-        <v>30.27778034773899</v>
+        <v>20.15794956472948</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-99.52967390013438</v>
       </c>
       <c r="S4">
-        <v>141.0749476076403</v>
+        <v>151.3913887327441</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7280,58 +7280,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.065893177151217</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.249318774975366</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.04065453000569</v>
       </c>
       <c r="E5">
-        <v>12.30787425511282</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>14.42589062071362</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>12.01644346064377</v>
       </c>
       <c r="H5">
-        <v>7.459610837159167</v>
+        <v>7.459610837159099</v>
       </c>
       <c r="I5">
-        <v>3.814808185419611</v>
+        <v>3.814808185419793</v>
       </c>
       <c r="J5">
-        <v>1.147731927075923</v>
+        <v>1.147731927164048</v>
       </c>
       <c r="K5">
-        <v>3.488438701416144</v>
+        <v>3.488438701404311</v>
       </c>
       <c r="L5">
-        <v>1.14773192717118</v>
+        <v>1.147731927170907</v>
       </c>
       <c r="M5">
-        <v>3.488438701416125</v>
+        <v>3.488438701416172</v>
       </c>
       <c r="N5">
-        <v>0.9049780685278245</v>
+        <v>0.9913509947044795</v>
       </c>
       <c r="O5">
-        <v>1.100000023844069</v>
+        <v>0.7421321146326126</v>
       </c>
       <c r="P5">
-        <v>1.002559002796032</v>
+        <v>0.9182145255970634</v>
       </c>
       <c r="Q5">
-        <v>30.94780160751773</v>
+        <v>18.897350790559</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999631</v>
+        <v>-99.08615255179105</v>
       </c>
       <c r="S5">
-        <v>140.7290130523957</v>
+        <v>153.3575306380652</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7339,58 +7339,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1.065893177151218</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.249318774975366</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1.040654530005689</v>
       </c>
       <c r="E6">
-        <v>12.30787425511282</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>14.42589062071363</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>12.01644346064376</v>
       </c>
       <c r="H6">
-        <v>7.459610837159166</v>
+        <v>7.459610837159103</v>
       </c>
       <c r="I6">
-        <v>3.814808185419611</v>
+        <v>3.814808185419791</v>
       </c>
       <c r="J6">
-        <v>1.147731927075922</v>
+        <v>1.14773192716405</v>
       </c>
       <c r="K6">
-        <v>3.488438701416144</v>
+        <v>3.488438701404312</v>
       </c>
       <c r="L6">
-        <v>1.14773192717118</v>
+        <v>1.147731927170906</v>
       </c>
       <c r="M6">
-        <v>3.488438701416125</v>
+        <v>3.488438701416173</v>
       </c>
       <c r="N6">
-        <v>0.9049780685278244</v>
+        <v>0.9913509947044795</v>
       </c>
       <c r="O6">
-        <v>1.100000023844069</v>
+        <v>0.7421321146326126</v>
       </c>
       <c r="P6">
-        <v>1.002559002796032</v>
+        <v>0.9182145255970634</v>
       </c>
       <c r="Q6">
-        <v>30.94780160751773</v>
+        <v>18.897350790559</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999629</v>
+        <v>-99.08615255179105</v>
       </c>
       <c r="S6">
-        <v>140.7290130523957</v>
+        <v>153.3575306380652</v>
       </c>
     </row>
   </sheetData>
@@ -7470,58 +7470,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.624940474846058</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.622289782670551</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.620634380647762</v>
       </c>
       <c r="E2">
-        <v>230.2146394843616</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>230.0462979218441</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>229.9411657734619</v>
       </c>
       <c r="H2">
-        <v>1.302220645038779</v>
+        <v>1.302220645038725</v>
       </c>
       <c r="I2">
-        <v>13.13357405514232</v>
+        <v>13.13357405514342</v>
       </c>
       <c r="J2">
-        <v>1.324394473163984</v>
+        <v>1.324394474185776</v>
       </c>
       <c r="K2">
-        <v>13.24394453564038</v>
+        <v>13.24394453578181</v>
       </c>
       <c r="L2">
-        <v>1.324394474104344</v>
+        <v>1.324394474104231</v>
       </c>
       <c r="M2">
-        <v>13.24394453563962</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6910350761596569</v>
+        <v>0.8370081355091836</v>
       </c>
       <c r="O2">
-        <v>1.100000023874117</v>
+        <v>0.4028253111899554</v>
       </c>
       <c r="P2">
-        <v>0.8375829381608167</v>
+        <v>0.6911934857615384</v>
       </c>
       <c r="Q2">
-        <v>40.43279153111713</v>
+        <v>8.945076236609326</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999652</v>
+        <v>-115.8807585964508</v>
       </c>
       <c r="S2">
-        <v>128.9019448775642</v>
+        <v>160.3632685851118</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7529,58 +7529,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.490708671254766</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.500483089525901</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.418459205771826</v>
       </c>
       <c r="E3">
-        <v>17.21322105264497</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>17.32608631304521</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>16.37895608573734</v>
       </c>
       <c r="H3">
-        <v>0.04235650252306639</v>
+        <v>0.04235650252306203</v>
       </c>
       <c r="I3">
-        <v>0.8917025845793023</v>
+        <v>0.8917025845794858</v>
       </c>
       <c r="J3">
-        <v>0.107731905317869</v>
+        <v>0.107731905406386</v>
       </c>
       <c r="K3">
-        <v>2.30843869464295</v>
+        <v>2.308438694631208</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132363</v>
+        <v>0.1077319054131889</v>
       </c>
       <c r="M3">
-        <v>2.308438694642829</v>
+        <v>2.30843869464288</v>
       </c>
       <c r="N3">
-        <v>0.9282437459573998</v>
+        <v>1.027154900637619</v>
       </c>
       <c r="O3">
-        <v>1.100000023844591</v>
+        <v>0.8723446855816874</v>
       </c>
       <c r="P3">
-        <v>1.036054827732469</v>
+        <v>0.9370212414505737</v>
       </c>
       <c r="Q3">
-        <v>29.26272628975795</v>
+        <v>21.5116854508782</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-100.0510163395943</v>
       </c>
       <c r="S3">
-        <v>141.4079909551121</v>
+        <v>149.0209319720996</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7588,58 +7588,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.245288291711345</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.367510898951779</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.181818645416918</v>
       </c>
       <c r="E4">
-        <v>14.37935060876469</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>15.79065571259113</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>13.64646626129553</v>
       </c>
       <c r="H4">
-        <v>3.756194024324211</v>
+        <v>3.756194024324175</v>
       </c>
       <c r="I4">
-        <v>2.351750953160546</v>
+        <v>2.351750953160728</v>
       </c>
       <c r="J4">
-        <v>0.6277319162687583</v>
+        <v>0.627731916357028</v>
       </c>
       <c r="K4">
-        <v>2.89843869796003</v>
+        <v>2.898438697948213</v>
       </c>
       <c r="L4">
-        <v>0.6277319163640331</v>
+        <v>0.6277319163638758</v>
       </c>
       <c r="M4">
-        <v>2.898438697959961</v>
+        <v>2.898438697960007</v>
       </c>
       <c r="N4">
-        <v>0.9154105614346412</v>
+        <v>1.007885130085947</v>
       </c>
       <c r="O4">
-        <v>1.10000002384432</v>
+        <v>0.8020156209384898</v>
       </c>
       <c r="P4">
-        <v>1.016159979689186</v>
+        <v>0.9264810374263683</v>
       </c>
       <c r="Q4">
-        <v>30.27778034773899</v>
+        <v>20.15794956472948</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-99.52967390013438</v>
       </c>
       <c r="S4">
-        <v>141.0749476076403</v>
+        <v>151.3913887327441</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7647,58 +7647,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.065893177151217</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.249318774975366</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.04065453000569</v>
       </c>
       <c r="E5">
-        <v>12.30787425511282</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>14.42589062071362</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>12.01644346064377</v>
       </c>
       <c r="H5">
-        <v>7.459610837159167</v>
+        <v>7.459610837159099</v>
       </c>
       <c r="I5">
-        <v>3.814808185419611</v>
+        <v>3.814808185419793</v>
       </c>
       <c r="J5">
-        <v>1.147731927075923</v>
+        <v>1.147731927164048</v>
       </c>
       <c r="K5">
-        <v>3.488438701416144</v>
+        <v>3.488438701404311</v>
       </c>
       <c r="L5">
-        <v>1.14773192717118</v>
+        <v>1.147731927170907</v>
       </c>
       <c r="M5">
-        <v>3.488438701416125</v>
+        <v>3.488438701416172</v>
       </c>
       <c r="N5">
-        <v>0.9049780685278245</v>
+        <v>0.9913509947044795</v>
       </c>
       <c r="O5">
-        <v>1.100000023844069</v>
+        <v>0.7421321146326126</v>
       </c>
       <c r="P5">
-        <v>1.002559002796032</v>
+        <v>0.9182145255970634</v>
       </c>
       <c r="Q5">
-        <v>30.94780160751773</v>
+        <v>18.897350790559</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999631</v>
+        <v>-99.08615255179105</v>
       </c>
       <c r="S5">
-        <v>140.7290130523957</v>
+        <v>153.3575306380652</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7706,58 +7706,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1.065893177151218</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.249318774975366</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1.040654530005689</v>
       </c>
       <c r="E6">
-        <v>12.30787425511282</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>14.42589062071363</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>12.01644346064376</v>
       </c>
       <c r="H6">
-        <v>7.459610837159166</v>
+        <v>7.459610837159103</v>
       </c>
       <c r="I6">
-        <v>3.814808185419611</v>
+        <v>3.814808185419791</v>
       </c>
       <c r="J6">
-        <v>1.147731927075922</v>
+        <v>1.14773192716405</v>
       </c>
       <c r="K6">
-        <v>3.488438701416144</v>
+        <v>3.488438701404312</v>
       </c>
       <c r="L6">
-        <v>1.14773192717118</v>
+        <v>1.147731927170906</v>
       </c>
       <c r="M6">
-        <v>3.488438701416125</v>
+        <v>3.488438701416173</v>
       </c>
       <c r="N6">
-        <v>0.9049780685278244</v>
+        <v>0.9913509947044795</v>
       </c>
       <c r="O6">
-        <v>1.100000023844069</v>
+        <v>0.7421321146326126</v>
       </c>
       <c r="P6">
-        <v>1.002559002796032</v>
+        <v>0.9182145255970634</v>
       </c>
       <c r="Q6">
-        <v>30.94780160751773</v>
+        <v>18.897350790559</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999629</v>
+        <v>-99.08615255179105</v>
       </c>
       <c r="S6">
-        <v>140.7290130523957</v>
+        <v>153.3575306380652</v>
       </c>
     </row>
   </sheetData>
@@ -7837,58 +7837,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.212323090189424</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4.204500216346317</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4.206808800909243</v>
       </c>
       <c r="E2">
-        <v>267.5184457037994</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>267.0216264886925</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>267.1682412997662</v>
       </c>
       <c r="H2">
-        <v>1.476445250025187</v>
+        <v>1.476445250025133</v>
       </c>
       <c r="I2">
-        <v>14.90759653787019</v>
+        <v>14.90759653787144</v>
       </c>
       <c r="J2">
-        <v>1.50499372264878</v>
+        <v>1.504993721246251</v>
       </c>
       <c r="K2">
-        <v>15.04993697229389</v>
+        <v>15.0499369732484</v>
       </c>
       <c r="L2">
-        <v>1.504993720695429</v>
+        <v>1.504993720695301</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.5765886435684566</v>
+        <v>0.5755003408384348</v>
       </c>
       <c r="O2">
-        <v>0.999999999996297</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5762722271295351</v>
+        <v>0.575500340817437</v>
       </c>
       <c r="Q2">
-        <v>60.1677610634032</v>
+        <v>0.01827518544798402</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>119.850281196398</v>
+        <v>-179.9817248150927</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7896,58 +7896,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>5.971983414500375</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>5.746262529807013</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>5.740649395966593</v>
       </c>
       <c r="E3">
-        <v>68.95852463915544</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>66.35212436836679</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>66.28730948169151</v>
       </c>
       <c r="H3">
-        <v>0.04800620886276573</v>
+        <v>0.0480062088627623</v>
       </c>
       <c r="I3">
-        <v>0.9610933812273449</v>
+        <v>0.9610933812275495</v>
       </c>
       <c r="J3">
-        <v>0.1153518594909623</v>
+        <v>0.1153518594949893</v>
       </c>
       <c r="K3">
-        <v>2.416397540675816</v>
+        <v>2.416397540717259</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711394</v>
+        <v>0.1153518594710869</v>
       </c>
       <c r="M3">
-        <v>2.416397540675689</v>
+        <v>2.416397540675745</v>
       </c>
       <c r="N3">
-        <v>0.5199773961133466</v>
+        <v>0.3837112302340936</v>
       </c>
       <c r="O3">
-        <v>1.000000000006553</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5204858233912609</v>
+        <v>0.3837112302244141</v>
       </c>
       <c r="Q3">
-        <v>73.96052963529452</v>
+        <v>-0.0704307420429455</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999599</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>106.0233806110438</v>
+        <v>179.929569257136</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7955,58 +7955,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2.74766627504868</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.871245492976407</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2.544120427165968</v>
       </c>
       <c r="E4">
-        <v>31.72731727085223</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>44.70129254938109</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>29.37697226950195</v>
       </c>
       <c r="H4">
-        <v>7.179198268248255</v>
+        <v>7.179198268248202</v>
       </c>
       <c r="I4">
-        <v>2.381328006872716</v>
+        <v>2.381328006872913</v>
       </c>
       <c r="J4">
-        <v>1.113751880253148</v>
+        <v>1.113751880256999</v>
       </c>
       <c r="K4">
-        <v>3.006397543745555</v>
+        <v>3.006397543787027</v>
       </c>
       <c r="L4">
-        <v>1.113751880233356</v>
+        <v>1.113751880233082</v>
       </c>
       <c r="M4">
-        <v>3.006397543745526</v>
+        <v>3.00639754374558</v>
       </c>
       <c r="N4">
-        <v>0.5600542419139701</v>
+        <v>0.7567045212037007</v>
       </c>
       <c r="O4">
-        <v>1.00000000000088</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8522031570042652</v>
+        <v>0.7567045212037672</v>
       </c>
       <c r="Q4">
-        <v>31.62940090634079</v>
+        <v>-8.312073893177622</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999631</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>124.0256852900353</v>
+        <v>171.6879261063769</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8014,58 +8014,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.608053223289025</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.764903772924683</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.101035304114947</v>
       </c>
       <c r="E5">
-        <v>18.56819922674327</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>31.92635875162956</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>24.26066596815344</v>
       </c>
       <c r="H5">
-        <v>14.28977970136578</v>
+        <v>14.28977970136567</v>
       </c>
       <c r="I5">
-        <v>3.820624652650447</v>
+        <v>3.82062465265064</v>
       </c>
       <c r="J5">
-        <v>2.112151900871204</v>
+        <v>2.112151900874842</v>
       </c>
       <c r="K5">
-        <v>3.596397547088158</v>
+        <v>3.596397547129635</v>
       </c>
       <c r="L5">
-        <v>2.112151900851419</v>
+        <v>2.112151900850923</v>
       </c>
       <c r="M5">
-        <v>3.596397547088229</v>
+        <v>3.596397547088281</v>
       </c>
       <c r="N5">
-        <v>0.664765231631766</v>
+        <v>0.7838620305992607</v>
       </c>
       <c r="O5">
-        <v>1.000000000000131</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8748124762338141</v>
+        <v>0.7838620305997251</v>
       </c>
       <c r="Q5">
-        <v>30.59148274614518</v>
+        <v>-5.141094698590205</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999611</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>130.8537654848676</v>
+        <v>174.8589053009605</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8073,58 +8073,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1.608053223289024</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2.764903772924682</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.101035304114946</v>
       </c>
       <c r="E6">
-        <v>18.56819922674327</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>31.92635875162954</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>24.26066596815343</v>
       </c>
       <c r="H6">
-        <v>14.28977970136578</v>
+        <v>14.28977970136567</v>
       </c>
       <c r="I6">
-        <v>3.820624652650448</v>
+        <v>3.820624652650646</v>
       </c>
       <c r="J6">
-        <v>2.112151900871206</v>
+        <v>2.112151900874841</v>
       </c>
       <c r="K6">
-        <v>3.596397547088155</v>
+        <v>3.596397547129635</v>
       </c>
       <c r="L6">
-        <v>2.112151900851419</v>
+        <v>2.112151900850923</v>
       </c>
       <c r="M6">
-        <v>3.596397547088227</v>
+        <v>3.596397547088279</v>
       </c>
       <c r="N6">
-        <v>0.664765231631766</v>
+        <v>0.7838620305992609</v>
       </c>
       <c r="O6">
-        <v>1.000000000000132</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8748124762338141</v>
+        <v>0.7838620305997249</v>
       </c>
       <c r="Q6">
-        <v>30.59148274614519</v>
+        <v>-5.141094698590184</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999611</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>130.8537654848676</v>
+        <v>174.8589053009605</v>
       </c>
     </row>
   </sheetData>
@@ -8355,58 +8355,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.212323090189424</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4.204500216346317</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4.206808800909243</v>
       </c>
       <c r="E2">
-        <v>267.5184457037994</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>267.0216264886925</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>267.1682412997662</v>
       </c>
       <c r="H2">
-        <v>1.476445250025187</v>
+        <v>1.476445250025133</v>
       </c>
       <c r="I2">
-        <v>14.90759653787019</v>
+        <v>14.90759653787144</v>
       </c>
       <c r="J2">
-        <v>1.50499372264878</v>
+        <v>1.504993721246251</v>
       </c>
       <c r="K2">
-        <v>15.04993697229389</v>
+        <v>15.0499369732484</v>
       </c>
       <c r="L2">
-        <v>1.504993720695429</v>
+        <v>1.504993720695301</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.5765886435684566</v>
+        <v>0.5755003408384348</v>
       </c>
       <c r="O2">
-        <v>0.999999999996297</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5762722271295351</v>
+        <v>0.575500340817437</v>
       </c>
       <c r="Q2">
-        <v>60.1677610634032</v>
+        <v>0.01827518544798402</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>119.850281196398</v>
+        <v>-179.9817248150927</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -8414,58 +8414,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>5.971983414500375</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>5.746262529807013</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>5.740649395966593</v>
       </c>
       <c r="E3">
-        <v>68.95852463915544</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>66.35212436836679</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>66.28730948169151</v>
       </c>
       <c r="H3">
-        <v>0.04800620886276573</v>
+        <v>0.0480062088627623</v>
       </c>
       <c r="I3">
-        <v>0.9610933812273449</v>
+        <v>0.9610933812275495</v>
       </c>
       <c r="J3">
-        <v>0.1153518594909623</v>
+        <v>0.1153518594949893</v>
       </c>
       <c r="K3">
-        <v>2.416397540675816</v>
+        <v>2.416397540717259</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711394</v>
+        <v>0.1153518594710869</v>
       </c>
       <c r="M3">
-        <v>2.416397540675689</v>
+        <v>2.416397540675745</v>
       </c>
       <c r="N3">
-        <v>0.5199773961133466</v>
+        <v>0.3837112302340936</v>
       </c>
       <c r="O3">
-        <v>1.000000000006553</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5204858233912609</v>
+        <v>0.3837112302244141</v>
       </c>
       <c r="Q3">
-        <v>73.96052963529452</v>
+        <v>-0.0704307420429455</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999599</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>106.0233806110438</v>
+        <v>179.929569257136</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -8473,58 +8473,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2.74766627504868</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.871245492976407</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2.544120427165968</v>
       </c>
       <c r="E4">
-        <v>31.72731727085223</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>44.70129254938109</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>29.37697226950195</v>
       </c>
       <c r="H4">
-        <v>7.179198268248255</v>
+        <v>7.179198268248202</v>
       </c>
       <c r="I4">
-        <v>2.381328006872716</v>
+        <v>2.381328006872913</v>
       </c>
       <c r="J4">
-        <v>1.113751880253148</v>
+        <v>1.113751880256999</v>
       </c>
       <c r="K4">
-        <v>3.006397543745555</v>
+        <v>3.006397543787027</v>
       </c>
       <c r="L4">
-        <v>1.113751880233356</v>
+        <v>1.113751880233082</v>
       </c>
       <c r="M4">
-        <v>3.006397543745526</v>
+        <v>3.00639754374558</v>
       </c>
       <c r="N4">
-        <v>0.5600542419139701</v>
+        <v>0.7567045212037007</v>
       </c>
       <c r="O4">
-        <v>1.00000000000088</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8522031570042652</v>
+        <v>0.7567045212037672</v>
       </c>
       <c r="Q4">
-        <v>31.62940090634079</v>
+        <v>-8.312073893177622</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999631</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>124.0256852900353</v>
+        <v>171.6879261063769</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8532,58 +8532,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.608053223289025</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.764903772924683</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.101035304114947</v>
       </c>
       <c r="E5">
-        <v>18.56819922674327</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>31.92635875162956</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>24.26066596815344</v>
       </c>
       <c r="H5">
-        <v>14.28977970136578</v>
+        <v>14.28977970136567</v>
       </c>
       <c r="I5">
-        <v>3.820624652650447</v>
+        <v>3.82062465265064</v>
       </c>
       <c r="J5">
-        <v>2.112151900871204</v>
+        <v>2.112151900874842</v>
       </c>
       <c r="K5">
-        <v>3.596397547088158</v>
+        <v>3.596397547129635</v>
       </c>
       <c r="L5">
-        <v>2.112151900851419</v>
+        <v>2.112151900850923</v>
       </c>
       <c r="M5">
-        <v>3.596397547088229</v>
+        <v>3.596397547088281</v>
       </c>
       <c r="N5">
-        <v>0.664765231631766</v>
+        <v>0.7838620305992607</v>
       </c>
       <c r="O5">
-        <v>1.000000000000131</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8748124762338141</v>
+        <v>0.7838620305997251</v>
       </c>
       <c r="Q5">
-        <v>30.59148274614518</v>
+        <v>-5.141094698590205</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999611</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>130.8537654848676</v>
+        <v>174.8589053009605</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8591,58 +8591,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1.608053223289024</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2.764903772924682</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.101035304114946</v>
       </c>
       <c r="E6">
-        <v>18.56819922674327</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>31.92635875162954</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>24.26066596815343</v>
       </c>
       <c r="H6">
-        <v>14.28977970136578</v>
+        <v>14.28977970136567</v>
       </c>
       <c r="I6">
-        <v>3.820624652650448</v>
+        <v>3.820624652650646</v>
       </c>
       <c r="J6">
-        <v>2.112151900871206</v>
+        <v>2.112151900874841</v>
       </c>
       <c r="K6">
-        <v>3.596397547088155</v>
+        <v>3.596397547129635</v>
       </c>
       <c r="L6">
-        <v>2.112151900851419</v>
+        <v>2.112151900850923</v>
       </c>
       <c r="M6">
-        <v>3.596397547088227</v>
+        <v>3.596397547088279</v>
       </c>
       <c r="N6">
-        <v>0.664765231631766</v>
+        <v>0.7838620305992609</v>
       </c>
       <c r="O6">
-        <v>1.000000000000132</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8748124762338141</v>
+        <v>0.7838620305997249</v>
       </c>
       <c r="Q6">
-        <v>30.59148274614519</v>
+        <v>-5.141094698590184</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999611</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>130.8537654848676</v>
+        <v>174.8589053009605</v>
       </c>
     </row>
   </sheetData>
@@ -8722,58 +8722,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.019799330972708</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.017067502804791</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.015672317100239</v>
       </c>
       <c r="E2">
-        <v>191.7830152299319</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>191.609520839838</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>191.5209146472078</v>
       </c>
       <c r="H2">
-        <v>1.476445250025187</v>
+        <v>1.476445250025133</v>
       </c>
       <c r="I2">
-        <v>14.90759653787019</v>
+        <v>14.90759653787144</v>
       </c>
       <c r="J2">
-        <v>1.50499372264878</v>
+        <v>1.504993721246251</v>
       </c>
       <c r="K2">
-        <v>15.04993697229389</v>
+        <v>15.0499369732484</v>
       </c>
       <c r="L2">
-        <v>1.504993720695429</v>
+        <v>1.504993720695301</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.6175484936549257</v>
+        <v>0.7463613276688932</v>
       </c>
       <c r="O2">
-        <v>0.9999999999908357</v>
+        <v>0.3354590831689806</v>
       </c>
       <c r="P2">
-        <v>0.7469868768512276</v>
+        <v>0.6176655355599789</v>
       </c>
       <c r="Q2">
-        <v>41.80899273589835</v>
+        <v>8.09538963285218</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999652</v>
+        <v>-117.0248837768022</v>
       </c>
       <c r="S2">
-        <v>128.0401067669047</v>
+        <v>161.7211055113619</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -8781,58 +8781,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.34248872739262</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.351101123881146</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.27657050257597</v>
       </c>
       <c r="E3">
-        <v>15.50172456288334</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>15.60117195150371</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>14.74056646603544</v>
       </c>
       <c r="H3">
-        <v>0.04800620886276573</v>
+        <v>0.0480062088627623</v>
       </c>
       <c r="I3">
-        <v>0.9610933812273449</v>
+        <v>0.9610933812275495</v>
       </c>
       <c r="J3">
-        <v>0.1153518594909623</v>
+        <v>0.1153518594949893</v>
       </c>
       <c r="K3">
-        <v>2.416397540675816</v>
+        <v>2.416397540717259</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711394</v>
+        <v>0.1153518594710869</v>
       </c>
       <c r="M3">
-        <v>2.416397540675689</v>
+        <v>2.416397540675745</v>
       </c>
       <c r="N3">
-        <v>0.8379929791010424</v>
+        <v>0.9305405005570508</v>
       </c>
       <c r="O3">
-        <v>1.000000000000763</v>
+        <v>0.7848521014139239</v>
       </c>
       <c r="P3">
-        <v>0.9390604356298995</v>
+        <v>0.8463562973200961</v>
       </c>
       <c r="Q3">
-        <v>29.30782544019303</v>
+        <v>21.20494723733822</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-100.4045966787053</v>
       </c>
       <c r="S3">
-        <v>141.0916992016996</v>
+        <v>149.0426517080645</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -8840,58 +8840,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.024643545051074</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.199957377888807</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.9724110168710458</v>
       </c>
       <c r="E4">
-        <v>11.831564531173</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>13.8559143028036</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>11.22843524706912</v>
       </c>
       <c r="H4">
-        <v>7.179198268248255</v>
+        <v>7.179198268248202</v>
       </c>
       <c r="I4">
-        <v>2.381328006872716</v>
+        <v>2.381328006872913</v>
       </c>
       <c r="J4">
-        <v>1.113751880253148</v>
+        <v>1.113751880256999</v>
       </c>
       <c r="K4">
-        <v>3.006397543745555</v>
+        <v>3.006397543787027</v>
       </c>
       <c r="L4">
-        <v>1.113751880233356</v>
+        <v>1.113751880233082</v>
       </c>
       <c r="M4">
-        <v>3.006397543745526</v>
+        <v>3.00639754374558</v>
       </c>
       <c r="N4">
-        <v>0.8362524769735679</v>
+        <v>0.9054384145060415</v>
       </c>
       <c r="O4">
-        <v>1.000000000000372</v>
+        <v>0.7019303077931054</v>
       </c>
       <c r="P4">
-        <v>0.9180075919745204</v>
+        <v>0.8514129462775721</v>
       </c>
       <c r="Q4">
-        <v>30.80741995392377</v>
+        <v>19.90061784524741</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999633</v>
+        <v>-97.63434507043144</v>
       </c>
       <c r="S4">
-        <v>141.4811203018104</v>
+        <v>152.9264757634079</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8899,58 +8899,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8165211222977987</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.057390965834774</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.8394791925479449</v>
       </c>
       <c r="E5">
-        <v>9.428373795152989</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>12.2096991752677</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>9.693470755932914</v>
       </c>
       <c r="H5">
-        <v>14.28977970136578</v>
+        <v>14.28977970136567</v>
       </c>
       <c r="I5">
-        <v>3.820624652650447</v>
+        <v>3.82062465265064</v>
       </c>
       <c r="J5">
-        <v>2.112151900871204</v>
+        <v>2.112151900874842</v>
       </c>
       <c r="K5">
-        <v>3.596397547088158</v>
+        <v>3.596397547129635</v>
       </c>
       <c r="L5">
-        <v>2.112151900851419</v>
+        <v>2.112151900850923</v>
       </c>
       <c r="M5">
-        <v>3.596397547088229</v>
+        <v>3.596397547088281</v>
       </c>
       <c r="N5">
-        <v>0.8318421429844037</v>
+        <v>0.8824007261855167</v>
       </c>
       <c r="O5">
-        <v>1.000000000000193</v>
+        <v>0.633773235077486</v>
       </c>
       <c r="P5">
-        <v>0.9045377971462235</v>
+        <v>0.8516705368398013</v>
       </c>
       <c r="Q5">
-        <v>31.68194032262535</v>
+        <v>18.6039434716845</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999622</v>
+        <v>-95.39765209812421</v>
       </c>
       <c r="S5">
-        <v>141.4979263676711</v>
+        <v>155.7752070444128</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8958,58 +8958,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8165211222977987</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.057390965834774</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.839479192547945</v>
       </c>
       <c r="E6">
-        <v>9.428373795152989</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>12.2096991752677</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>9.693470755932914</v>
       </c>
       <c r="H6">
-        <v>14.28977970136578</v>
+        <v>14.28977970136567</v>
       </c>
       <c r="I6">
-        <v>3.820624652650448</v>
+        <v>3.820624652650646</v>
       </c>
       <c r="J6">
-        <v>2.112151900871206</v>
+        <v>2.112151900874841</v>
       </c>
       <c r="K6">
-        <v>3.596397547088155</v>
+        <v>3.596397547129635</v>
       </c>
       <c r="L6">
-        <v>2.112151900851419</v>
+        <v>2.112151900850923</v>
       </c>
       <c r="M6">
-        <v>3.596397547088227</v>
+        <v>3.596397547088279</v>
       </c>
       <c r="N6">
-        <v>0.8318421429844038</v>
+        <v>0.8824007261855167</v>
       </c>
       <c r="O6">
-        <v>1.000000000000193</v>
+        <v>0.633773235077486</v>
       </c>
       <c r="P6">
-        <v>0.9045377971462233</v>
+        <v>0.851670536839801</v>
       </c>
       <c r="Q6">
-        <v>31.68194032262535</v>
+        <v>18.6039434716845</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999622</v>
+        <v>-95.39765209812421</v>
       </c>
       <c r="S6">
-        <v>141.4979263676711</v>
+        <v>155.7752070444128</v>
       </c>
     </row>
   </sheetData>
@@ -9089,58 +9089,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.019799330972708</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.017067502804791</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.015672317100239</v>
       </c>
       <c r="E2">
-        <v>191.7830152299319</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>191.609520839838</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>191.5209146472078</v>
       </c>
       <c r="H2">
-        <v>1.476445250025187</v>
+        <v>1.476445250025133</v>
       </c>
       <c r="I2">
-        <v>14.90759653787019</v>
+        <v>14.90759653787144</v>
       </c>
       <c r="J2">
-        <v>1.50499372264878</v>
+        <v>1.504993721246251</v>
       </c>
       <c r="K2">
-        <v>15.04993697229389</v>
+        <v>15.0499369732484</v>
       </c>
       <c r="L2">
-        <v>1.504993720695429</v>
+        <v>1.504993720695301</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.6175484936549257</v>
+        <v>0.7463613276688932</v>
       </c>
       <c r="O2">
-        <v>0.9999999999908357</v>
+        <v>0.3354590831689806</v>
       </c>
       <c r="P2">
-        <v>0.7469868768512276</v>
+        <v>0.6176655355599789</v>
       </c>
       <c r="Q2">
-        <v>41.80899273589835</v>
+        <v>8.09538963285218</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999652</v>
+        <v>-117.0248837768022</v>
       </c>
       <c r="S2">
-        <v>128.0401067669047</v>
+        <v>161.7211055113619</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -9148,58 +9148,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.34248872739262</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.351101123881146</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.27657050257597</v>
       </c>
       <c r="E3">
-        <v>15.50172456288334</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>15.60117195150371</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>14.74056646603544</v>
       </c>
       <c r="H3">
-        <v>0.04800620886276573</v>
+        <v>0.0480062088627623</v>
       </c>
       <c r="I3">
-        <v>0.9610933812273449</v>
+        <v>0.9610933812275495</v>
       </c>
       <c r="J3">
-        <v>0.1153518594909623</v>
+        <v>0.1153518594949893</v>
       </c>
       <c r="K3">
-        <v>2.416397540675816</v>
+        <v>2.416397540717259</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711394</v>
+        <v>0.1153518594710869</v>
       </c>
       <c r="M3">
-        <v>2.416397540675689</v>
+        <v>2.416397540675745</v>
       </c>
       <c r="N3">
-        <v>0.8379929791010424</v>
+        <v>0.9305405005570508</v>
       </c>
       <c r="O3">
-        <v>1.000000000000763</v>
+        <v>0.7848521014139239</v>
       </c>
       <c r="P3">
-        <v>0.9390604356298995</v>
+        <v>0.8463562973200961</v>
       </c>
       <c r="Q3">
-        <v>29.30782544019303</v>
+        <v>21.20494723733822</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-100.4045966787053</v>
       </c>
       <c r="S3">
-        <v>141.0916992016996</v>
+        <v>149.0426517080645</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -9207,58 +9207,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.024643545051074</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.199957377888807</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.9724110168710458</v>
       </c>
       <c r="E4">
-        <v>11.831564531173</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>13.8559143028036</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>11.22843524706912</v>
       </c>
       <c r="H4">
-        <v>7.179198268248255</v>
+        <v>7.179198268248202</v>
       </c>
       <c r="I4">
-        <v>2.381328006872716</v>
+        <v>2.381328006872913</v>
       </c>
       <c r="J4">
-        <v>1.113751880253148</v>
+        <v>1.113751880256999</v>
       </c>
       <c r="K4">
-        <v>3.006397543745555</v>
+        <v>3.006397543787027</v>
       </c>
       <c r="L4">
-        <v>1.113751880233356</v>
+        <v>1.113751880233082</v>
       </c>
       <c r="M4">
-        <v>3.006397543745526</v>
+        <v>3.00639754374558</v>
       </c>
       <c r="N4">
-        <v>0.8362524769735679</v>
+        <v>0.9054384145060415</v>
       </c>
       <c r="O4">
-        <v>1.000000000000372</v>
+        <v>0.7019303077931054</v>
       </c>
       <c r="P4">
-        <v>0.9180075919745204</v>
+        <v>0.8514129462775721</v>
       </c>
       <c r="Q4">
-        <v>30.80741995392377</v>
+        <v>19.90061784524741</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999633</v>
+        <v>-97.63434507043144</v>
       </c>
       <c r="S4">
-        <v>141.4811203018104</v>
+        <v>152.9264757634079</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -9266,58 +9266,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8165211222977987</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.057390965834774</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.8394791925479449</v>
       </c>
       <c r="E5">
-        <v>9.428373795152989</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>12.2096991752677</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>9.693470755932914</v>
       </c>
       <c r="H5">
-        <v>14.28977970136578</v>
+        <v>14.28977970136567</v>
       </c>
       <c r="I5">
-        <v>3.820624652650447</v>
+        <v>3.82062465265064</v>
       </c>
       <c r="J5">
-        <v>2.112151900871204</v>
+        <v>2.112151900874842</v>
       </c>
       <c r="K5">
-        <v>3.596397547088158</v>
+        <v>3.596397547129635</v>
       </c>
       <c r="L5">
-        <v>2.112151900851419</v>
+        <v>2.112151900850923</v>
       </c>
       <c r="M5">
-        <v>3.596397547088229</v>
+        <v>3.596397547088281</v>
       </c>
       <c r="N5">
-        <v>0.8318421429844037</v>
+        <v>0.8824007261855167</v>
       </c>
       <c r="O5">
-        <v>1.000000000000193</v>
+        <v>0.633773235077486</v>
       </c>
       <c r="P5">
-        <v>0.9045377971462235</v>
+        <v>0.8516705368398013</v>
       </c>
       <c r="Q5">
-        <v>31.68194032262535</v>
+        <v>18.6039434716845</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999622</v>
+        <v>-95.39765209812421</v>
       </c>
       <c r="S5">
-        <v>141.4979263676711</v>
+        <v>155.7752070444128</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -9325,58 +9325,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8165211222977987</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.057390965834774</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.839479192547945</v>
       </c>
       <c r="E6">
-        <v>9.428373795152989</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>12.2096991752677</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>9.693470755932914</v>
       </c>
       <c r="H6">
-        <v>14.28977970136578</v>
+        <v>14.28977970136567</v>
       </c>
       <c r="I6">
-        <v>3.820624652650448</v>
+        <v>3.820624652650646</v>
       </c>
       <c r="J6">
-        <v>2.112151900871206</v>
+        <v>2.112151900874841</v>
       </c>
       <c r="K6">
-        <v>3.596397547088155</v>
+        <v>3.596397547129635</v>
       </c>
       <c r="L6">
-        <v>2.112151900851419</v>
+        <v>2.112151900850923</v>
       </c>
       <c r="M6">
-        <v>3.596397547088227</v>
+        <v>3.596397547088279</v>
       </c>
       <c r="N6">
-        <v>0.8318421429844038</v>
+        <v>0.8824007261855167</v>
       </c>
       <c r="O6">
-        <v>1.000000000000193</v>
+        <v>0.633773235077486</v>
       </c>
       <c r="P6">
-        <v>0.9045377971462233</v>
+        <v>0.851670536839801</v>
       </c>
       <c r="Q6">
-        <v>31.68194032262535</v>
+        <v>18.6039434716845</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999622</v>
+        <v>-95.39765209812421</v>
       </c>
       <c r="S6">
-        <v>141.4979263676711</v>
+        <v>155.7752070444128</v>
       </c>
     </row>
   </sheetData>
